--- a/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_MenuGroupMember.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_MenuGroupMember.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="7">
   <si>
     <t>Home</t>
   </si>
@@ -34,12 +35,18 @@
   <si>
     <t>Purchase</t>
   </si>
+  <si>
+    <t>Menu Ref ID</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,8 +60,22 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -73,11 +94,43 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -86,12 +139,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,6 +174,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="MainNEW"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -3446,6 +3507,657 @@
           </cell>
           <cell r="M372" t="str">
             <v>Module.SupplyChain.Procurement.PurchaseOrder.Report.DataResume</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="E2">
+            <v>97000000000001</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>System.Login</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>Login</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>97000000000002</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>System.Logout</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>Logout</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>97000000000003</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>System.Lock</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>Lock</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>97000000000004</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>Dashboard.DocumentTracking</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>Document Tracking</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>97000000000005</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>Dashboard.DocumentDisposition</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>Document Disposition</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>97000000000006</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>Module.Administration.User.Transaction</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>User</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>97000000000007</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>Module.Administration.User.Report.DataList</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>User Data List</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>97000000000008</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>Module.Administration.UserRole.Transaction</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>User Role</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>97000000000009</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>Module.Administration.UserRole.Report.DataList</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>User Role Data List</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>97000000000010</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>Module.Administration.UserRoleGroup.Transaction</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>User Role Group</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12">
+            <v>97000000000011</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>Module.Administration.UserRoleGroup.Report.DataList</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>User Role Group Data List</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>97000000000012</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>Module.Administration.UserRoleGroupMember.Transaction</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>User Role Group Member</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14">
+            <v>97000000000013</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>Module.Administration.UserRoleGroupMember.Report.DataList</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>User Role Group Member Data List</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>97000000000014</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>Module.Administration.UserRoleDelegation</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>User Role Delegation</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16">
+            <v>97000000000015</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>Module.Administration.UserRoleDelegation.Report.DataList</v>
+          </cell>
+          <cell r="G16" t="str">
+            <v>User Role Delegation Data List</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>97000000000016</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>Module.Administration.UserRolePrivilegesMenu</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v>User Role Privileges Menu</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>97000000000017</v>
+          </cell>
+          <cell r="F18" t="str">
+            <v>Module.Administration.UserRolePrivilegesMenu.Report.DataList</v>
+          </cell>
+          <cell r="G18" t="str">
+            <v>User Role Privileges Data List</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>97000000000018</v>
+          </cell>
+          <cell r="F19" t="str">
+            <v>Module.Administration.Menu</v>
+          </cell>
+          <cell r="G19" t="str">
+            <v>Menu</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20">
+            <v>97000000000019</v>
+          </cell>
+          <cell r="F20" t="str">
+            <v>Module.Administration.Menu.Report.DataList</v>
+          </cell>
+          <cell r="G20" t="str">
+            <v>Menu Data List</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21">
+            <v>97000000000020</v>
+          </cell>
+          <cell r="F21" t="str">
+            <v>Module.Administration.MenuGroup</v>
+          </cell>
+          <cell r="G21" t="str">
+            <v>Menu Group</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22">
+            <v>97000000000021</v>
+          </cell>
+          <cell r="F22" t="str">
+            <v>Module.Administration.MenuGroup.Report.DataList</v>
+          </cell>
+          <cell r="G22" t="str">
+            <v>Menu Group Data List</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23">
+            <v>97000000000022</v>
+          </cell>
+          <cell r="F23" t="str">
+            <v>Module.Administration.MenuGroupMember</v>
+          </cell>
+          <cell r="G23" t="str">
+            <v>Menu Group Member</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>97000000000023</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>Module.Administration.MenuGroupMember.Report.DataList</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>Menu Group Member Data List</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>97000000000024</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>Module.Administration.MenuAction</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>Menu Action</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26">
+            <v>97000000000025</v>
+          </cell>
+          <cell r="F26" t="str">
+            <v>Module.Administration.MenuAction.Report.DataList</v>
+          </cell>
+          <cell r="G26" t="str">
+            <v>Menu Action Data List</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
+            <v>97000000000026</v>
+          </cell>
+          <cell r="F27" t="str">
+            <v>Module.Administration.WorkFlow</v>
+          </cell>
+          <cell r="G27" t="str">
+            <v>Workflow</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28">
+            <v>97000000000027</v>
+          </cell>
+          <cell r="F28" t="str">
+            <v>Module.Administration.WorkFlow.Report.DataList</v>
+          </cell>
+          <cell r="G28" t="str">
+            <v>Workflow Data List</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29">
+            <v>97000000000028</v>
+          </cell>
+          <cell r="F29" t="str">
+            <v>Module.Administration.WorkFlowPath</v>
+          </cell>
+          <cell r="G29" t="str">
+            <v>Workflow Path</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>97000000000029</v>
+          </cell>
+          <cell r="F30" t="str">
+            <v>Module.Administration.WorkFlowPath.Report.DataList</v>
+          </cell>
+          <cell r="G30" t="str">
+            <v>Workflow Path Data List</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>97000000000030</v>
+          </cell>
+          <cell r="F31" t="str">
+            <v>Module.MasterData.Bank</v>
+          </cell>
+          <cell r="G31" t="str">
+            <v>Bank</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>97000000000031</v>
+          </cell>
+          <cell r="F32" t="str">
+            <v>Module.MasterData.Bank.Report.DataList</v>
+          </cell>
+          <cell r="G32" t="str">
+            <v>Bank Data List</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33">
+            <v>97000000000032</v>
+          </cell>
+          <cell r="F33" t="str">
+            <v>Module.MasterData.BankAccount</v>
+          </cell>
+          <cell r="G33" t="str">
+            <v>Bank Account</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34">
+            <v>97000000000033</v>
+          </cell>
+          <cell r="F34" t="str">
+            <v>Module.MasterData.BankAccount.Report.DataList</v>
+          </cell>
+          <cell r="G34" t="str">
+            <v>Bank Account Data List</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35">
+            <v>97000000000034</v>
+          </cell>
+          <cell r="F35" t="str">
+            <v>Module.MasterData.BankBranch</v>
+          </cell>
+          <cell r="G35" t="str">
+            <v>Bank Branch</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36">
+            <v>97000000000035</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>Module.MasterData.BankBranch.Report.DataList</v>
+          </cell>
+          <cell r="G36" t="str">
+            <v>Bank Branch Data List</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37">
+            <v>97000000000036</v>
+          </cell>
+          <cell r="F37" t="str">
+            <v>Module.MasterData.Person</v>
+          </cell>
+          <cell r="G37" t="str">
+            <v>Person</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="E38">
+            <v>97000000000037</v>
+          </cell>
+          <cell r="F38" t="str">
+            <v>Module.MasterData.Person.Report.DataList</v>
+          </cell>
+          <cell r="G38" t="str">
+            <v>Person Data List</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39">
+            <v>97000000000038</v>
+          </cell>
+          <cell r="F39" t="str">
+            <v>Module.Accounting.MasterData.ChartOfAccounting</v>
+          </cell>
+          <cell r="G39" t="str">
+            <v>Chart Of Accounting</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="E40">
+            <v>97000000000039</v>
+          </cell>
+          <cell r="F40" t="str">
+            <v>Module.Accounting.MasterData.ChartOfAccounting.Report.DataList</v>
+          </cell>
+          <cell r="G40" t="str">
+            <v>Chart Of Accounting Data List</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="E41">
+            <v>97000000000040</v>
+          </cell>
+          <cell r="F41" t="str">
+            <v>Module.Finance.Advance.Transaction</v>
+          </cell>
+          <cell r="G41" t="str">
+            <v>Advance</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="E42">
+            <v>97000000000041</v>
+          </cell>
+          <cell r="F42" t="str">
+            <v>Module.Finance.Advance.Report.Form</v>
+          </cell>
+          <cell r="G42" t="str">
+            <v>Advance Form</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="E43">
+            <v>97000000000042</v>
+          </cell>
+          <cell r="F43" t="str">
+            <v>Module.Finance.Advance.Report.DataList</v>
+          </cell>
+          <cell r="G43" t="str">
+            <v>Advance Data List</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="E44">
+            <v>97000000000043</v>
+          </cell>
+          <cell r="F44" t="str">
+            <v>Module.Finance.Advance.Report.Resume</v>
+          </cell>
+          <cell r="G44" t="str">
+            <v>Advance Data Resume</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="E45">
+            <v>97000000000044</v>
+          </cell>
+          <cell r="F45" t="str">
+            <v>Module.Finance.AdvancePayment.Transaction</v>
+          </cell>
+          <cell r="G45" t="str">
+            <v>Advance Payment</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="E46">
+            <v>97000000000045</v>
+          </cell>
+          <cell r="F46" t="str">
+            <v>Module.Finance.AdvancePayment.Report.Form</v>
+          </cell>
+          <cell r="G46" t="str">
+            <v>Advance Payment Form</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="E47">
+            <v>97000000000046</v>
+          </cell>
+          <cell r="F47" t="str">
+            <v>Module.Finance.AdvancePayment.Report.DataList</v>
+          </cell>
+          <cell r="G47" t="str">
+            <v>Advance Payment Data List</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="E48">
+            <v>97000000000047</v>
+          </cell>
+          <cell r="F48" t="str">
+            <v>Module.Finance.AdvancePayment.Report.Resume</v>
+          </cell>
+          <cell r="G48" t="str">
+            <v>Advance Payment Resume</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="E49">
+            <v>97000000000048</v>
+          </cell>
+          <cell r="F49" t="str">
+            <v>Module.Finance.AdvanceSettlement.Transaction</v>
+          </cell>
+          <cell r="G49" t="str">
+            <v>Advance Settlement</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="E50">
+            <v>97000000000049</v>
+          </cell>
+          <cell r="F50" t="str">
+            <v>Module.Finance.AdvanceSettlement.Report.Form</v>
+          </cell>
+          <cell r="G50" t="str">
+            <v>Advance Settlement Form</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="E51">
+            <v>97000000000050</v>
+          </cell>
+          <cell r="F51" t="str">
+            <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
+          </cell>
+          <cell r="G51" t="str">
+            <v>Advance Settlement Data List</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="E52">
+            <v>97000000000051</v>
+          </cell>
+          <cell r="F52" t="str">
+            <v>Module.Finance.AdvanceSettlement.Report.Resume</v>
+          </cell>
+          <cell r="G52" t="str">
+            <v>Advance Settlement Resume</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="E53">
+            <v>97000000000052</v>
+          </cell>
+          <cell r="F53" t="str">
+            <v>Module.Finance.Payment.Transaction</v>
+          </cell>
+          <cell r="G53" t="str">
+            <v>Advance Payment</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="E54">
+            <v>97000000000053</v>
+          </cell>
+          <cell r="F54" t="str">
+            <v>Module.Finance.Payment.Report.Form</v>
+          </cell>
+          <cell r="G54" t="str">
+            <v>Advance Payment Form</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="E55">
+            <v>97000000000054</v>
+          </cell>
+          <cell r="F55" t="str">
+            <v>Module.Finance.Payment.Report.DataList</v>
+          </cell>
+          <cell r="G55" t="str">
+            <v>Advance Payment Data List</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="E56">
+            <v>97000000000055</v>
+          </cell>
+          <cell r="F56" t="str">
+            <v>Module.Finance.Payment.Report.Resume</v>
+          </cell>
+          <cell r="G56" t="str">
+            <v>Advance Payment Resume</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="E57">
+            <v>97000000000056</v>
+          </cell>
+          <cell r="F57" t="str">
+            <v>Module.Finance.PaymentInstruction.Transaction</v>
+          </cell>
+          <cell r="G57" t="str">
+            <v>Advance Payment Instruction</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="E58">
+            <v>97000000000057</v>
+          </cell>
+          <cell r="F58" t="str">
+            <v>Module.Finance.PaymentInstruction.Report.Form</v>
+          </cell>
+          <cell r="G58" t="str">
+            <v>Advance Payment Instruction Form</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="E59">
+            <v>97000000000058</v>
+          </cell>
+          <cell r="F59" t="str">
+            <v>Module.Finance.PaymentInstruction.Report.DataList</v>
+          </cell>
+          <cell r="G59" t="str">
+            <v>Advance Payment Instruction Data List</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="E60">
+            <v>97000000000059</v>
+          </cell>
+          <cell r="F60" t="str">
+            <v>Module.Finance.PaymentInstruction.Report.Resume</v>
+          </cell>
+          <cell r="G60" t="str">
+            <v>Advance Payment Instruction Resume</v>
           </cell>
         </row>
       </sheetData>
@@ -3835,10 +4547,1315 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="6">
+        <f>[1]MainNEW!$E2</f>
+        <v>97000000000001</v>
+      </c>
+      <c r="C2" s="7" t="str">
+        <f>VLOOKUP($B2, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>System.Login</v>
+      </c>
+      <c r="D2" s="8" t="str">
+        <f>VLOOKUP($B2, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Login</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <f>IF(EXACT($F2, ""), "", VLOOKUP($F2, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000001</v>
+      </c>
+      <c r="I2" s="9" t="str">
+        <f>IF(EXACT(G2, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuGroupMember_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", G2, "::bigint, ", B2, "::bigint);"))</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000001::bigint, 97000000000001::bigint);</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="6">
+        <f>[1]MainNEW!$E3</f>
+        <v>97000000000002</v>
+      </c>
+      <c r="C3" s="7" t="str">
+        <f>VLOOKUP($B3, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>System.Logout</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f>VLOOKUP($B3, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Logout</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <f>IF(EXACT($F3, ""), "", VLOOKUP($F3, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000001</v>
+      </c>
+      <c r="I3" s="9" t="str">
+        <f t="shared" ref="I3:I52" si="0">IF(EXACT(G3, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuGroupMember_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", G3, "::bigint, ", B3, "::bigint);"))</f>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000001::bigint, 97000000000002::bigint);</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="6">
+        <f>[1]MainNEW!$E4</f>
+        <v>97000000000003</v>
+      </c>
+      <c r="C4" s="7" t="str">
+        <f>VLOOKUP($B4, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>System.Lock</v>
+      </c>
+      <c r="D4" s="8" t="str">
+        <f>VLOOKUP($B4, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Lock</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <f>IF(EXACT($F4, ""), "", VLOOKUP($F4, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000001</v>
+      </c>
+      <c r="I4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000001::bigint, 97000000000003::bigint);</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="6">
+        <f>[1]MainNEW!$E5</f>
+        <v>97000000000004</v>
+      </c>
+      <c r="C5" s="7" t="str">
+        <f>VLOOKUP($B5, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Dashboard.DocumentTracking</v>
+      </c>
+      <c r="D5" s="8" t="str">
+        <f>VLOOKUP($B5, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Document Tracking</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <f>IF(EXACT($F5, ""), "", VLOOKUP($F5, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000001</v>
+      </c>
+      <c r="I5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000001::bigint, 97000000000004::bigint);</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="6">
+        <f>[1]MainNEW!$E6</f>
+        <v>97000000000005</v>
+      </c>
+      <c r="C6" s="7" t="str">
+        <f>VLOOKUP($B6, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Dashboard.DocumentDisposition</v>
+      </c>
+      <c r="D6" s="8" t="str">
+        <f>VLOOKUP($B6, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Document Disposition</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <f>IF(EXACT($F6, ""), "", VLOOKUP($F6, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000001</v>
+      </c>
+      <c r="I6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000001::bigint, 97000000000005::bigint);</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="6">
+        <f>[1]MainNEW!$E7</f>
+        <v>97000000000006</v>
+      </c>
+      <c r="C7" s="7" t="str">
+        <f>VLOOKUP($B7, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Administration.User.Transaction</v>
+      </c>
+      <c r="D7" s="8" t="str">
+        <f>VLOOKUP($B7, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>User</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <f>IF(EXACT($F7, ""), "", VLOOKUP($F7, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000010</v>
+      </c>
+      <c r="I7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000006::bigint);</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="6">
+        <f>[1]MainNEW!$E8</f>
+        <v>97000000000007</v>
+      </c>
+      <c r="C8" s="7" t="str">
+        <f>VLOOKUP($B8, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Administration.User.Report.DataList</v>
+      </c>
+      <c r="D8" s="8" t="str">
+        <f>VLOOKUP($B8, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>User Data List</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <f>IF(EXACT($F8, ""), "", VLOOKUP($F8, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000010</v>
+      </c>
+      <c r="I8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000007::bigint);</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="6">
+        <f>[1]MainNEW!$E9</f>
+        <v>97000000000008</v>
+      </c>
+      <c r="C9" s="7" t="str">
+        <f>VLOOKUP($B9, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Administration.UserRole.Transaction</v>
+      </c>
+      <c r="D9" s="8" t="str">
+        <f>VLOOKUP($B9, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>User Role</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <f>IF(EXACT($F9, ""), "", VLOOKUP($F9, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000010</v>
+      </c>
+      <c r="I9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000008::bigint);</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="6">
+        <f>[1]MainNEW!$E10</f>
+        <v>97000000000009</v>
+      </c>
+      <c r="C10" s="7" t="str">
+        <f>VLOOKUP($B10, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Administration.UserRole.Report.DataList</v>
+      </c>
+      <c r="D10" s="8" t="str">
+        <f>VLOOKUP($B10, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>User Role Data List</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <f>IF(EXACT($F10, ""), "", VLOOKUP($F10, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000010</v>
+      </c>
+      <c r="I10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000009::bigint);</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="6">
+        <f>[1]MainNEW!$E11</f>
+        <v>97000000000010</v>
+      </c>
+      <c r="C11" s="7" t="str">
+        <f>VLOOKUP($B11, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Administration.UserRoleGroup.Transaction</v>
+      </c>
+      <c r="D11" s="8" t="str">
+        <f>VLOOKUP($B11, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>User Role Group</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <f>IF(EXACT($F11, ""), "", VLOOKUP($F11, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000010</v>
+      </c>
+      <c r="I11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000010::bigint);</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="6">
+        <f>[1]MainNEW!$E12</f>
+        <v>97000000000011</v>
+      </c>
+      <c r="C12" s="7" t="str">
+        <f>VLOOKUP($B12, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Administration.UserRoleGroup.Report.DataList</v>
+      </c>
+      <c r="D12" s="8" t="str">
+        <f>VLOOKUP($B12, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>User Role Group Data List</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <f>IF(EXACT($F12, ""), "", VLOOKUP($F12, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000010</v>
+      </c>
+      <c r="I12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000011::bigint);</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="6">
+        <f>[1]MainNEW!$E13</f>
+        <v>97000000000012</v>
+      </c>
+      <c r="C13" s="7" t="str">
+        <f>VLOOKUP($B13, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Administration.UserRoleGroupMember.Transaction</v>
+      </c>
+      <c r="D13" s="8" t="str">
+        <f>VLOOKUP($B13, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>User Role Group Member</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <f>IF(EXACT($F13, ""), "", VLOOKUP($F13, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000010</v>
+      </c>
+      <c r="I13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000012::bigint);</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="6">
+        <f>[1]MainNEW!$E14</f>
+        <v>97000000000013</v>
+      </c>
+      <c r="C14" s="7" t="str">
+        <f>VLOOKUP($B14, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Administration.UserRoleGroupMember.Report.DataList</v>
+      </c>
+      <c r="D14" s="8" t="str">
+        <f>VLOOKUP($B14, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>User Role Group Member Data List</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <f>IF(EXACT($F14, ""), "", VLOOKUP($F14, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000010</v>
+      </c>
+      <c r="I14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000013::bigint);</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="6">
+        <f>[1]MainNEW!$E15</f>
+        <v>97000000000014</v>
+      </c>
+      <c r="C15" s="7" t="str">
+        <f>VLOOKUP($B15, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Administration.UserRoleDelegation</v>
+      </c>
+      <c r="D15" s="8" t="str">
+        <f>VLOOKUP($B15, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>User Role Delegation</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <f>IF(EXACT($F15, ""), "", VLOOKUP($F15, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000010</v>
+      </c>
+      <c r="I15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000014::bigint);</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="6">
+        <f>[1]MainNEW!$E16</f>
+        <v>97000000000015</v>
+      </c>
+      <c r="C16" s="7" t="str">
+        <f>VLOOKUP($B16, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Administration.UserRoleDelegation.Report.DataList</v>
+      </c>
+      <c r="D16" s="8" t="str">
+        <f>VLOOKUP($B16, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>User Role Delegation Data List</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <f>IF(EXACT($F16, ""), "", VLOOKUP($F16, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000010</v>
+      </c>
+      <c r="I16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000015::bigint);</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="6">
+        <f>[1]MainNEW!$E17</f>
+        <v>97000000000016</v>
+      </c>
+      <c r="C17" s="7" t="str">
+        <f>VLOOKUP($B17, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Administration.UserRolePrivilegesMenu</v>
+      </c>
+      <c r="D17" s="8" t="str">
+        <f>VLOOKUP($B17, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>User Role Privileges Menu</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <f>IF(EXACT($F17, ""), "", VLOOKUP($F17, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000010</v>
+      </c>
+      <c r="I17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000016::bigint);</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="6">
+        <f>[1]MainNEW!$E18</f>
+        <v>97000000000017</v>
+      </c>
+      <c r="C18" s="7" t="str">
+        <f>VLOOKUP($B18, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Administration.UserRolePrivilegesMenu.Report.DataList</v>
+      </c>
+      <c r="D18" s="8" t="str">
+        <f>VLOOKUP($B18, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>User Role Privileges Data List</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <f>IF(EXACT($F18, ""), "", VLOOKUP($F18, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000010</v>
+      </c>
+      <c r="I18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000017::bigint);</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="6">
+        <f>[1]MainNEW!$E19</f>
+        <v>97000000000018</v>
+      </c>
+      <c r="C19" s="7" t="str">
+        <f>VLOOKUP($B19, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Administration.Menu</v>
+      </c>
+      <c r="D19" s="8" t="str">
+        <f>VLOOKUP($B19, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Menu</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <f>IF(EXACT($F19, ""), "", VLOOKUP($F19, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000010</v>
+      </c>
+      <c r="I19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000018::bigint);</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="6">
+        <f>[1]MainNEW!$E20</f>
+        <v>97000000000019</v>
+      </c>
+      <c r="C20" s="7" t="str">
+        <f>VLOOKUP($B20, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Administration.Menu.Report.DataList</v>
+      </c>
+      <c r="D20" s="8" t="str">
+        <f>VLOOKUP($B20, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Menu Data List</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <f>IF(EXACT($F20, ""), "", VLOOKUP($F20, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000010</v>
+      </c>
+      <c r="I20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000019::bigint);</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="6">
+        <f>[1]MainNEW!$E21</f>
+        <v>97000000000020</v>
+      </c>
+      <c r="C21" s="7" t="str">
+        <f>VLOOKUP($B21, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Administration.MenuGroup</v>
+      </c>
+      <c r="D21" s="8" t="str">
+        <f>VLOOKUP($B21, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Menu Group</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <f>IF(EXACT($F21, ""), "", VLOOKUP($F21, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000010</v>
+      </c>
+      <c r="I21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000020::bigint);</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="6">
+        <f>[1]MainNEW!$E22</f>
+        <v>97000000000021</v>
+      </c>
+      <c r="C22" s="7" t="str">
+        <f>VLOOKUP($B22, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Administration.MenuGroup.Report.DataList</v>
+      </c>
+      <c r="D22" s="8" t="str">
+        <f>VLOOKUP($B22, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Menu Group Data List</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
+        <f>IF(EXACT($F22, ""), "", VLOOKUP($F22, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000010</v>
+      </c>
+      <c r="I22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000021::bigint);</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="6">
+        <f>[1]MainNEW!$E23</f>
+        <v>97000000000022</v>
+      </c>
+      <c r="C23" s="7" t="str">
+        <f>VLOOKUP($B23, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Administration.MenuGroupMember</v>
+      </c>
+      <c r="D23" s="8" t="str">
+        <f>VLOOKUP($B23, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Menu Group Member</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
+        <f>IF(EXACT($F23, ""), "", VLOOKUP($F23, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000010</v>
+      </c>
+      <c r="I23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000022::bigint);</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="6">
+        <f>[1]MainNEW!$E24</f>
+        <v>97000000000023</v>
+      </c>
+      <c r="C24" s="7" t="str">
+        <f>VLOOKUP($B24, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Administration.MenuGroupMember.Report.DataList</v>
+      </c>
+      <c r="D24" s="8" t="str">
+        <f>VLOOKUP($B24, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Menu Group Member Data List</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6">
+        <f>IF(EXACT($F24, ""), "", VLOOKUP($F24, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000010</v>
+      </c>
+      <c r="I24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000023::bigint);</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="6">
+        <f>[1]MainNEW!$E25</f>
+        <v>97000000000024</v>
+      </c>
+      <c r="C25" s="7" t="str">
+        <f>VLOOKUP($B25, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Administration.MenuAction</v>
+      </c>
+      <c r="D25" s="8" t="str">
+        <f>VLOOKUP($B25, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Menu Action</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
+        <f>IF(EXACT($F25, ""), "", VLOOKUP($F25, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000010</v>
+      </c>
+      <c r="I25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000024::bigint);</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="6">
+        <f>[1]MainNEW!$E26</f>
+        <v>97000000000025</v>
+      </c>
+      <c r="C26" s="7" t="str">
+        <f>VLOOKUP($B26, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Administration.MenuAction.Report.DataList</v>
+      </c>
+      <c r="D26" s="8" t="str">
+        <f>VLOOKUP($B26, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Menu Action Data List</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6">
+        <f>IF(EXACT($F26, ""), "", VLOOKUP($F26, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000010</v>
+      </c>
+      <c r="I26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000025::bigint);</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="6">
+        <f>[1]MainNEW!$E27</f>
+        <v>97000000000026</v>
+      </c>
+      <c r="C27" s="7" t="str">
+        <f>VLOOKUP($B27, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Administration.WorkFlow</v>
+      </c>
+      <c r="D27" s="8" t="str">
+        <f>VLOOKUP($B27, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Workflow</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6">
+        <f>IF(EXACT($F27, ""), "", VLOOKUP($F27, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000010</v>
+      </c>
+      <c r="I27" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000026::bigint);</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="6">
+        <f>[1]MainNEW!$E28</f>
+        <v>97000000000027</v>
+      </c>
+      <c r="C28" s="7" t="str">
+        <f>VLOOKUP($B28, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Administration.WorkFlow.Report.DataList</v>
+      </c>
+      <c r="D28" s="8" t="str">
+        <f>VLOOKUP($B28, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Workflow Data List</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6">
+        <f>IF(EXACT($F28, ""), "", VLOOKUP($F28, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000010</v>
+      </c>
+      <c r="I28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000027::bigint);</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="6">
+        <f>[1]MainNEW!$E29</f>
+        <v>97000000000028</v>
+      </c>
+      <c r="C29" s="7" t="str">
+        <f>VLOOKUP($B29, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Administration.WorkFlowPath</v>
+      </c>
+      <c r="D29" s="8" t="str">
+        <f>VLOOKUP($B29, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Workflow Path</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6">
+        <f>IF(EXACT($F29, ""), "", VLOOKUP($F29, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000010</v>
+      </c>
+      <c r="I29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000028::bigint);</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="6">
+        <f>[1]MainNEW!$E30</f>
+        <v>97000000000029</v>
+      </c>
+      <c r="C30" s="7" t="str">
+        <f>VLOOKUP($B30, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Administration.WorkFlowPath.Report.DataList</v>
+      </c>
+      <c r="D30" s="8" t="str">
+        <f>VLOOKUP($B30, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Workflow Path Data List</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6">
+        <f>IF(EXACT($F30, ""), "", VLOOKUP($F30, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000010</v>
+      </c>
+      <c r="I30" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000029::bigint);</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="6">
+        <f>[1]MainNEW!$E31</f>
+        <v>97000000000030</v>
+      </c>
+      <c r="C31" s="7" t="str">
+        <f>VLOOKUP($B31, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.MasterData.Bank</v>
+      </c>
+      <c r="D31" s="8" t="str">
+        <f>VLOOKUP($B31, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Bank</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="6">
+        <f>IF(EXACT($F31, ""), "", VLOOKUP($F31, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000009</v>
+      </c>
+      <c r="I31" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000030::bigint);</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="6">
+        <f>[1]MainNEW!$E32</f>
+        <v>97000000000031</v>
+      </c>
+      <c r="C32" s="7" t="str">
+        <f>VLOOKUP($B32, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.MasterData.Bank.Report.DataList</v>
+      </c>
+      <c r="D32" s="8" t="str">
+        <f>VLOOKUP($B32, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Bank Data List</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="6">
+        <f>IF(EXACT($F32, ""), "", VLOOKUP($F32, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000009</v>
+      </c>
+      <c r="I32" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000031::bigint);</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="6">
+        <f>[1]MainNEW!$E33</f>
+        <v>97000000000032</v>
+      </c>
+      <c r="C33" s="7" t="str">
+        <f>VLOOKUP($B33, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.MasterData.BankAccount</v>
+      </c>
+      <c r="D33" s="8" t="str">
+        <f>VLOOKUP($B33, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Bank Account</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="6">
+        <f>IF(EXACT($F33, ""), "", VLOOKUP($F33, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000009</v>
+      </c>
+      <c r="I33" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000032::bigint);</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="6">
+        <f>[1]MainNEW!$E34</f>
+        <v>97000000000033</v>
+      </c>
+      <c r="C34" s="7" t="str">
+        <f>VLOOKUP($B34, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.MasterData.BankAccount.Report.DataList</v>
+      </c>
+      <c r="D34" s="8" t="str">
+        <f>VLOOKUP($B34, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Bank Account Data List</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="6">
+        <f>IF(EXACT($F34, ""), "", VLOOKUP($F34, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000009</v>
+      </c>
+      <c r="I34" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000033::bigint);</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="6">
+        <f>[1]MainNEW!$E35</f>
+        <v>97000000000034</v>
+      </c>
+      <c r="C35" s="7" t="str">
+        <f>VLOOKUP($B35, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.MasterData.BankBranch</v>
+      </c>
+      <c r="D35" s="8" t="str">
+        <f>VLOOKUP($B35, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Bank Branch</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="6">
+        <f>IF(EXACT($F35, ""), "", VLOOKUP($F35, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000009</v>
+      </c>
+      <c r="I35" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000034::bigint);</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="6">
+        <f>[1]MainNEW!$E36</f>
+        <v>97000000000035</v>
+      </c>
+      <c r="C36" s="7" t="str">
+        <f>VLOOKUP($B36, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.MasterData.BankBranch.Report.DataList</v>
+      </c>
+      <c r="D36" s="8" t="str">
+        <f>VLOOKUP($B36, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Bank Branch Data List</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="6">
+        <f>IF(EXACT($F36, ""), "", VLOOKUP($F36, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000009</v>
+      </c>
+      <c r="I36" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000035::bigint);</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="6">
+        <f>[1]MainNEW!$E37</f>
+        <v>97000000000036</v>
+      </c>
+      <c r="C37" s="7" t="str">
+        <f>VLOOKUP($B37, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.MasterData.Person</v>
+      </c>
+      <c r="D37" s="8" t="str">
+        <f>VLOOKUP($B37, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Person</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="6">
+        <f>IF(EXACT($F37, ""), "", VLOOKUP($F37, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000009</v>
+      </c>
+      <c r="I37" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000036::bigint);</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="6">
+        <f>[1]MainNEW!$E38</f>
+        <v>97000000000037</v>
+      </c>
+      <c r="C38" s="7" t="str">
+        <f>VLOOKUP($B38, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.MasterData.Person.Report.DataList</v>
+      </c>
+      <c r="D38" s="8" t="str">
+        <f>VLOOKUP($B38, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Person Data List</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="6">
+        <f>IF(EXACT($F38, ""), "", VLOOKUP($F38, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000009</v>
+      </c>
+      <c r="I38" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000037::bigint);</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="6">
+        <f>[1]MainNEW!$E39</f>
+        <v>97000000000038</v>
+      </c>
+      <c r="C39" s="7" t="str">
+        <f>VLOOKUP($B39, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Accounting.MasterData.ChartOfAccounting</v>
+      </c>
+      <c r="D39" s="8" t="str">
+        <f>VLOOKUP($B39, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Chart Of Accounting</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="6">
+        <f>IF(EXACT($F39, ""), "", VLOOKUP($F39, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000009</v>
+      </c>
+      <c r="I39" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000038::bigint);</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="6">
+        <f>[1]MainNEW!$E40</f>
+        <v>97000000000039</v>
+      </c>
+      <c r="C40" s="7" t="str">
+        <f>VLOOKUP($B40, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Accounting.MasterData.ChartOfAccounting.Report.DataList</v>
+      </c>
+      <c r="D40" s="8" t="str">
+        <f>VLOOKUP($B40, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Chart Of Accounting Data List</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="6">
+        <f>IF(EXACT($F40, ""), "", VLOOKUP($F40, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000009</v>
+      </c>
+      <c r="I40" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000039::bigint);</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="6">
+        <f>[1]MainNEW!$E41</f>
+        <v>97000000000040</v>
+      </c>
+      <c r="C41" s="7" t="str">
+        <f>VLOOKUP($B41, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Finance.Advance.Transaction</v>
+      </c>
+      <c r="D41" s="8" t="str">
+        <f>VLOOKUP($B41, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Advance</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="6">
+        <f>IF(EXACT($F41, ""), "", VLOOKUP($F41, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000004</v>
+      </c>
+      <c r="I41" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000040::bigint);</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="6">
+        <f>[1]MainNEW!$E42</f>
+        <v>97000000000041</v>
+      </c>
+      <c r="C42" s="7" t="str">
+        <f>VLOOKUP($B42, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Finance.Advance.Report.Form</v>
+      </c>
+      <c r="D42" s="8" t="str">
+        <f>VLOOKUP($B42, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Advance Form</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="6">
+        <f>IF(EXACT($F42, ""), "", VLOOKUP($F42, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000004</v>
+      </c>
+      <c r="I42" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000041::bigint);</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="6">
+        <f>[1]MainNEW!$E43</f>
+        <v>97000000000042</v>
+      </c>
+      <c r="C43" s="7" t="str">
+        <f>VLOOKUP($B43, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Finance.Advance.Report.DataList</v>
+      </c>
+      <c r="D43" s="8" t="str">
+        <f>VLOOKUP($B43, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Advance Data List</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" s="6">
+        <f>IF(EXACT($F43, ""), "", VLOOKUP($F43, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000004</v>
+      </c>
+      <c r="I43" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000042::bigint);</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="6">
+        <f>[1]MainNEW!$E44</f>
+        <v>97000000000043</v>
+      </c>
+      <c r="C44" s="7" t="str">
+        <f>VLOOKUP($B44, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Finance.Advance.Report.Resume</v>
+      </c>
+      <c r="D44" s="8" t="str">
+        <f>VLOOKUP($B44, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Advance Data Resume</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" s="6">
+        <f>IF(EXACT($F44, ""), "", VLOOKUP($F44, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000004</v>
+      </c>
+      <c r="I44" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000043::bigint);</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="6">
+        <f>[1]MainNEW!$E45</f>
+        <v>97000000000044</v>
+      </c>
+      <c r="C45" s="7" t="str">
+        <f>VLOOKUP($B45, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Finance.AdvancePayment.Transaction</v>
+      </c>
+      <c r="D45" s="8" t="str">
+        <f>VLOOKUP($B45, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Advance Payment</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="6">
+        <f>IF(EXACT($F45, ""), "", VLOOKUP($F45, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000004</v>
+      </c>
+      <c r="I45" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000044::bigint);</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="6">
+        <f>[1]MainNEW!$E46</f>
+        <v>97000000000045</v>
+      </c>
+      <c r="C46" s="7" t="str">
+        <f>VLOOKUP($B46, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Finance.AdvancePayment.Report.Form</v>
+      </c>
+      <c r="D46" s="8" t="str">
+        <f>VLOOKUP($B46, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Advance Payment Form</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" s="6">
+        <f>IF(EXACT($F46, ""), "", VLOOKUP($F46, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000004</v>
+      </c>
+      <c r="I46" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000045::bigint);</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="6">
+        <f>[1]MainNEW!$E47</f>
+        <v>97000000000046</v>
+      </c>
+      <c r="C47" s="7" t="str">
+        <f>VLOOKUP($B47, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Finance.AdvancePayment.Report.DataList</v>
+      </c>
+      <c r="D47" s="8" t="str">
+        <f>VLOOKUP($B47, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Advance Payment Data List</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="6">
+        <f>IF(EXACT($F47, ""), "", VLOOKUP($F47, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000004</v>
+      </c>
+      <c r="I47" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000046::bigint);</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="6">
+        <f>[1]MainNEW!$E48</f>
+        <v>97000000000047</v>
+      </c>
+      <c r="C48" s="7" t="str">
+        <f>VLOOKUP($B48, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Finance.AdvancePayment.Report.Resume</v>
+      </c>
+      <c r="D48" s="8" t="str">
+        <f>VLOOKUP($B48, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Advance Payment Resume</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="6">
+        <f>IF(EXACT($F48, ""), "", VLOOKUP($F48, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000004</v>
+      </c>
+      <c r="I48" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000047::bigint);</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" s="6">
+        <f>[1]MainNEW!$E49</f>
+        <v>97000000000048</v>
+      </c>
+      <c r="C49" s="7" t="str">
+        <f>VLOOKUP($B49, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Finance.AdvanceSettlement.Transaction</v>
+      </c>
+      <c r="D49" s="8" t="str">
+        <f>VLOOKUP($B49, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Advance Settlement</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="6">
+        <f>IF(EXACT($F49, ""), "", VLOOKUP($F49, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000004</v>
+      </c>
+      <c r="I49" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000048::bigint);</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="6">
+        <f>[1]MainNEW!$E50</f>
+        <v>97000000000049</v>
+      </c>
+      <c r="C50" s="7" t="str">
+        <f>VLOOKUP($B50, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Finance.AdvanceSettlement.Report.Form</v>
+      </c>
+      <c r="D50" s="8" t="str">
+        <f>VLOOKUP($B50, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Advance Settlement Form</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="6">
+        <f>IF(EXACT($F50, ""), "", VLOOKUP($F50, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000004</v>
+      </c>
+      <c r="I50" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000049::bigint);</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="6">
+        <f>[1]MainNEW!$E51</f>
+        <v>97000000000050</v>
+      </c>
+      <c r="C51" s="7" t="str">
+        <f>VLOOKUP($B51, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Finance.AdvanceSettlement.Report.DataList</v>
+      </c>
+      <c r="D51" s="8" t="str">
+        <f>VLOOKUP($B51, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Advance Settlement Data List</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" s="6">
+        <f>IF(EXACT($F51, ""), "", VLOOKUP($F51, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000004</v>
+      </c>
+      <c r="I51" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000050::bigint);</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="6">
+        <f>[1]MainNEW!$E52</f>
+        <v>97000000000051</v>
+      </c>
+      <c r="C52" s="7" t="str">
+        <f>VLOOKUP($B52, [1]MainNEW!$E$2:$G$808, 2, FALSE)</f>
+        <v>Module.Finance.AdvanceSettlement.Report.Resume</v>
+      </c>
+      <c r="D52" s="8" t="str">
+        <f>VLOOKUP($B52, [1]MainNEW!$E$2:$G$808, 3, FALSE)</f>
+        <v>Advance Settlement Resume</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="6">
+        <f>IF(EXACT($F52, ""), "", VLOOKUP($F52, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <v>254000000000004</v>
+      </c>
+      <c r="I52" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000051::bigint);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J372"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4811,11 +6828,8 @@
         <f t="shared" si="6"/>
         <v>Module.Administration.User.DataValidation</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="H32" s="4">
-        <f>IF(EXACT(G32, ""), "", VLOOKUP(G32, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <f>IF(EXACT(Main!F7, ""), "", VLOOKUP(Main!F7, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
       <c r="J32" s="2" t="str">
@@ -4844,11 +6858,8 @@
         <f t="shared" si="6"/>
         <v>Module.Administration.User.Create</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="H33" s="4">
-        <f>IF(EXACT(G33, ""), "", VLOOKUP(G33, [2]Main!$B$2:$D$30, 3, FALSE))</f>
+        <f>IF(EXACT(Main!F8, ""), "", VLOOKUP(Main!F8, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
       <c r="J33" s="2" t="str">

--- a/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_MenuGroupMember.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_MenuGroupMember.xlsx
@@ -87,7 +87,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +115,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -151,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -165,6 +171,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7852,10 +7859,10 @@
             <v>97000000000394</v>
           </cell>
           <cell r="F395" t="str">
-            <v>Module.Finance.Data.SalesProformaInvoice.Transaction</v>
+            <v>Module.Finance.Data.SalesInvoiceRequisition.Transaction</v>
           </cell>
           <cell r="G395" t="str">
-            <v>Sales Proforma Invoice</v>
+            <v>Sales Invoice Requisition</v>
           </cell>
         </row>
         <row r="396">
@@ -7863,10 +7870,10 @@
             <v>97000000000395</v>
           </cell>
           <cell r="F396" t="str">
-            <v>Module.Finance.Data.SalesProformaInvoice.Report.Form</v>
+            <v>Module.Finance.Data.SalesInvoiceRequisition.Report.Form</v>
           </cell>
           <cell r="G396" t="str">
-            <v>Sales Proforma Invoice Form</v>
+            <v>Sales Invoice Requisition Form</v>
           </cell>
         </row>
         <row r="397">
@@ -7874,10 +7881,10 @@
             <v>97000000000396</v>
           </cell>
           <cell r="F397" t="str">
-            <v>Module.Finance.Data.SalesProformaInvoice.Report.DataList</v>
+            <v>Module.Finance.Data.SalesInvoiceRequisition.Report.DataList</v>
           </cell>
           <cell r="G397" t="str">
-            <v>Sales Proforma Invoice Data List</v>
+            <v>Sales Invoice Requisition Data List</v>
           </cell>
         </row>
         <row r="398">
@@ -7885,10 +7892,10 @@
             <v>97000000000397</v>
           </cell>
           <cell r="F398" t="str">
-            <v>Module.Finance.Data.SalesProformaInvoice.Report.Resume</v>
+            <v>Module.Finance.Data.SalesInvoiceRequisition.Report.Resume</v>
           </cell>
           <cell r="G398" t="str">
-            <v>Sales Proforma Invoice Resume</v>
+            <v>Sales Invoice Requisition Resume</v>
           </cell>
         </row>
         <row r="399">
@@ -7896,10 +7903,10 @@
             <v>97000000000398</v>
           </cell>
           <cell r="F399" t="str">
-            <v>Module.Finance.Data.SalesInvoice.Transaction</v>
+            <v>Module.Finance.Data.SalesProformaInvoice.Transaction</v>
           </cell>
           <cell r="G399" t="str">
-            <v>Sales Invoice</v>
+            <v>Sales Proforma Invoice</v>
           </cell>
         </row>
         <row r="400">
@@ -7907,10 +7914,10 @@
             <v>97000000000399</v>
           </cell>
           <cell r="F400" t="str">
-            <v>Module.Finance.Data.SalesInvoice.Report.Form</v>
+            <v>Module.Finance.Data.SalesProformaInvoice.Report.Form</v>
           </cell>
           <cell r="G400" t="str">
-            <v>Sales Invoice Form</v>
+            <v>Sales Proforma Invoice Form</v>
           </cell>
         </row>
         <row r="401">
@@ -7918,10 +7925,10 @@
             <v>97000000000400</v>
           </cell>
           <cell r="F401" t="str">
-            <v>Module.Finance.Data.SalesInvoice.Report.DataList</v>
+            <v>Module.Finance.Data.SalesProformaInvoice.Report.DataList</v>
           </cell>
           <cell r="G401" t="str">
-            <v>Sales Invoice Data List</v>
+            <v>Sales Proforma Invoice Data List</v>
           </cell>
         </row>
         <row r="402">
@@ -7929,10 +7936,10 @@
             <v>97000000000401</v>
           </cell>
           <cell r="F402" t="str">
-            <v>Module.Finance.Data.SalesInvoice.Report.Resume</v>
+            <v>Module.Finance.Data.SalesProformaInvoice.Report.Resume</v>
           </cell>
           <cell r="G402" t="str">
-            <v>Sales Invoice Resume</v>
+            <v>Sales Proforma Invoice Resume</v>
           </cell>
         </row>
         <row r="403">
@@ -10788,8 +10795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I626"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I626"/>
+    <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
+      <selection activeCell="B405" sqref="B405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10829,6 +10836,9 @@
         <f>IF(EXACT($F2, ""), "", VLOOKUP($F2, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000001</v>
       </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
       <c r="I2" s="9" t="str">
         <f>IF(EXACT(G2, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuGroupMember_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", G2, "::bigint, ", B2, "::bigint);"))</f>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000001::bigint, 97000000000001::bigint);</v>
@@ -10854,6 +10864,9 @@
         <f>IF(EXACT($F3, ""), "", VLOOKUP($F3, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000001</v>
       </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
       <c r="I3" s="9" t="str">
         <f t="shared" ref="I3:I66" si="0">IF(EXACT(G3, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuGroupMember_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", G3, "::bigint, ", B3, "::bigint);"))</f>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000001::bigint, 97000000000002::bigint);</v>
@@ -10879,6 +10892,9 @@
         <f>IF(EXACT($F4, ""), "", VLOOKUP($F4, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000001</v>
       </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
       <c r="I4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000001::bigint, 97000000000003::bigint);</v>
@@ -10904,6 +10920,9 @@
         <f>IF(EXACT($F5, ""), "", VLOOKUP($F5, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000001</v>
       </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
       <c r="I5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000001::bigint, 97000000000004::bigint);</v>
@@ -10929,6 +10948,9 @@
         <f>IF(EXACT($F6, ""), "", VLOOKUP($F6, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000001</v>
       </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
       <c r="I6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000001::bigint, 97000000000005::bigint);</v>
@@ -10954,6 +10976,9 @@
         <f>IF(EXACT($F7, ""), "", VLOOKUP($F7, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000001</v>
       </c>
+      <c r="H7" s="2">
+        <v>6</v>
+      </c>
       <c r="I7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000001::bigint, 97000000000006::bigint);</v>
@@ -10979,6 +11004,9 @@
         <f>IF(EXACT($F8, ""), "", VLOOKUP($F8, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H8" s="2">
+        <v>7</v>
+      </c>
       <c r="I8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000007::bigint);</v>
@@ -11004,6 +11032,9 @@
         <f>IF(EXACT($F9, ""), "", VLOOKUP($F9, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H9" s="2">
+        <v>8</v>
+      </c>
       <c r="I9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000008::bigint);</v>
@@ -11029,6 +11060,9 @@
         <f>IF(EXACT($F10, ""), "", VLOOKUP($F10, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H10" s="2">
+        <v>9</v>
+      </c>
       <c r="I10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000009::bigint);</v>
@@ -11054,6 +11088,9 @@
         <f>IF(EXACT($F11, ""), "", VLOOKUP($F11, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H11" s="2">
+        <v>10</v>
+      </c>
       <c r="I11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000010::bigint);</v>
@@ -11079,6 +11116,9 @@
         <f>IF(EXACT($F12, ""), "", VLOOKUP($F12, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H12" s="2">
+        <v>11</v>
+      </c>
       <c r="I12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000011::bigint);</v>
@@ -11104,6 +11144,9 @@
         <f>IF(EXACT($F13, ""), "", VLOOKUP($F13, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H13" s="2">
+        <v>12</v>
+      </c>
       <c r="I13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000012::bigint);</v>
@@ -11129,6 +11172,9 @@
         <f>IF(EXACT($F14, ""), "", VLOOKUP($F14, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H14" s="2">
+        <v>13</v>
+      </c>
       <c r="I14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000013::bigint);</v>
@@ -11154,6 +11200,9 @@
         <f>IF(EXACT($F15, ""), "", VLOOKUP($F15, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H15" s="2">
+        <v>14</v>
+      </c>
       <c r="I15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000014::bigint);</v>
@@ -11179,6 +11228,9 @@
         <f>IF(EXACT($F16, ""), "", VLOOKUP($F16, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H16" s="2">
+        <v>15</v>
+      </c>
       <c r="I16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000015::bigint);</v>
@@ -11204,6 +11256,9 @@
         <f>IF(EXACT($F17, ""), "", VLOOKUP($F17, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H17" s="2">
+        <v>16</v>
+      </c>
       <c r="I17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000016::bigint);</v>
@@ -11229,6 +11284,9 @@
         <f>IF(EXACT($F18, ""), "", VLOOKUP($F18, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H18" s="2">
+        <v>17</v>
+      </c>
       <c r="I18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000017::bigint);</v>
@@ -11254,6 +11312,9 @@
         <f>IF(EXACT($F19, ""), "", VLOOKUP($F19, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H19" s="2">
+        <v>18</v>
+      </c>
       <c r="I19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000018::bigint);</v>
@@ -11279,6 +11340,9 @@
         <f>IF(EXACT($F20, ""), "", VLOOKUP($F20, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H20" s="2">
+        <v>19</v>
+      </c>
       <c r="I20" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000019::bigint);</v>
@@ -11304,6 +11368,9 @@
         <f>IF(EXACT($F21, ""), "", VLOOKUP($F21, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H21" s="2">
+        <v>20</v>
+      </c>
       <c r="I21" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000020::bigint);</v>
@@ -11329,6 +11396,9 @@
         <f>IF(EXACT($F22, ""), "", VLOOKUP($F22, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H22" s="2">
+        <v>21</v>
+      </c>
       <c r="I22" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000021::bigint);</v>
@@ -11354,6 +11424,9 @@
         <f>IF(EXACT($F23, ""), "", VLOOKUP($F23, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H23" s="2">
+        <v>22</v>
+      </c>
       <c r="I23" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000022::bigint);</v>
@@ -11379,6 +11452,9 @@
         <f>IF(EXACT($F24, ""), "", VLOOKUP($F24, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H24" s="2">
+        <v>23</v>
+      </c>
       <c r="I24" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000023::bigint);</v>
@@ -11404,6 +11480,9 @@
         <f>IF(EXACT($F25, ""), "", VLOOKUP($F25, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H25" s="2">
+        <v>24</v>
+      </c>
       <c r="I25" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000024::bigint);</v>
@@ -11429,6 +11508,9 @@
         <f>IF(EXACT($F26, ""), "", VLOOKUP($F26, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H26" s="2">
+        <v>25</v>
+      </c>
       <c r="I26" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000025::bigint);</v>
@@ -11454,6 +11536,9 @@
         <f>IF(EXACT($F27, ""), "", VLOOKUP($F27, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H27" s="2">
+        <v>26</v>
+      </c>
       <c r="I27" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000026::bigint);</v>
@@ -11479,6 +11564,9 @@
         <f>IF(EXACT($F28, ""), "", VLOOKUP($F28, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H28" s="2">
+        <v>27</v>
+      </c>
       <c r="I28" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000027::bigint);</v>
@@ -11504,6 +11592,9 @@
         <f>IF(EXACT($F29, ""), "", VLOOKUP($F29, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H29" s="2">
+        <v>28</v>
+      </c>
       <c r="I29" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000028::bigint);</v>
@@ -11529,6 +11620,9 @@
         <f>IF(EXACT($F30, ""), "", VLOOKUP($F30, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H30" s="2">
+        <v>29</v>
+      </c>
       <c r="I30" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000029::bigint);</v>
@@ -11554,6 +11648,9 @@
         <f>IF(EXACT($F31, ""), "", VLOOKUP($F31, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H31" s="2">
+        <v>30</v>
+      </c>
       <c r="I31" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000030::bigint);</v>
@@ -11579,6 +11676,9 @@
         <f>IF(EXACT($F32, ""), "", VLOOKUP($F32, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H32" s="2">
+        <v>31</v>
+      </c>
       <c r="I32" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000031::bigint);</v>
@@ -11604,6 +11704,9 @@
         <f>IF(EXACT($F33, ""), "", VLOOKUP($F33, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H33" s="2">
+        <v>32</v>
+      </c>
       <c r="I33" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000032::bigint);</v>
@@ -11629,6 +11732,9 @@
         <f>IF(EXACT($F34, ""), "", VLOOKUP($F34, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H34" s="2">
+        <v>33</v>
+      </c>
       <c r="I34" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000033::bigint);</v>
@@ -11654,6 +11760,9 @@
         <f>IF(EXACT($F35, ""), "", VLOOKUP($F35, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H35" s="2">
+        <v>34</v>
+      </c>
       <c r="I35" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000034::bigint);</v>
@@ -11679,6 +11788,9 @@
         <f>IF(EXACT($F36, ""), "", VLOOKUP($F36, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H36" s="2">
+        <v>35</v>
+      </c>
       <c r="I36" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000035::bigint);</v>
@@ -11704,6 +11816,9 @@
         <f>IF(EXACT($F37, ""), "", VLOOKUP($F37, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H37" s="2">
+        <v>36</v>
+      </c>
       <c r="I37" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000036::bigint);</v>
@@ -11729,6 +11844,9 @@
         <f>IF(EXACT($F38, ""), "", VLOOKUP($F38, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H38" s="2">
+        <v>37</v>
+      </c>
       <c r="I38" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000037::bigint);</v>
@@ -11754,6 +11872,9 @@
         <f>IF(EXACT($F39, ""), "", VLOOKUP($F39, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H39" s="2">
+        <v>38</v>
+      </c>
       <c r="I39" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000038::bigint);</v>
@@ -11779,6 +11900,9 @@
         <f>IF(EXACT($F40, ""), "", VLOOKUP($F40, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H40" s="2">
+        <v>39</v>
+      </c>
       <c r="I40" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000039::bigint);</v>
@@ -11804,6 +11928,9 @@
         <f>IF(EXACT($F41, ""), "", VLOOKUP($F41, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H41" s="2">
+        <v>40</v>
+      </c>
       <c r="I41" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000040::bigint);</v>
@@ -11829,6 +11956,9 @@
         <f>IF(EXACT($F42, ""), "", VLOOKUP($F42, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H42" s="2">
+        <v>41</v>
+      </c>
       <c r="I42" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000041::bigint);</v>
@@ -11854,6 +11984,9 @@
         <f>IF(EXACT($F43, ""), "", VLOOKUP($F43, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H43" s="2">
+        <v>42</v>
+      </c>
       <c r="I43" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000042::bigint);</v>
@@ -11879,6 +12012,9 @@
         <f>IF(EXACT($F44, ""), "", VLOOKUP($F44, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H44" s="2">
+        <v>43</v>
+      </c>
       <c r="I44" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000043::bigint);</v>
@@ -11904,6 +12040,9 @@
         <f>IF(EXACT($F45, ""), "", VLOOKUP($F45, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H45" s="2">
+        <v>44</v>
+      </c>
       <c r="I45" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000044::bigint);</v>
@@ -11929,6 +12068,9 @@
         <f>IF(EXACT($F46, ""), "", VLOOKUP($F46, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H46" s="2">
+        <v>45</v>
+      </c>
       <c r="I46" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000045::bigint);</v>
@@ -11954,6 +12096,9 @@
         <f>IF(EXACT($F47, ""), "", VLOOKUP($F47, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H47" s="2">
+        <v>46</v>
+      </c>
       <c r="I47" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000046::bigint);</v>
@@ -11979,6 +12124,9 @@
         <f>IF(EXACT($F48, ""), "", VLOOKUP($F48, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H48" s="2">
+        <v>47</v>
+      </c>
       <c r="I48" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000047::bigint);</v>
@@ -12004,6 +12152,9 @@
         <f>IF(EXACT($F49, ""), "", VLOOKUP($F49, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H49" s="2">
+        <v>48</v>
+      </c>
       <c r="I49" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000048::bigint);</v>
@@ -12029,6 +12180,9 @@
         <f>IF(EXACT($F50, ""), "", VLOOKUP($F50, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H50" s="2">
+        <v>49</v>
+      </c>
       <c r="I50" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000049::bigint);</v>
@@ -12054,6 +12208,9 @@
         <f>IF(EXACT($F51, ""), "", VLOOKUP($F51, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H51" s="2">
+        <v>50</v>
+      </c>
       <c r="I51" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000050::bigint);</v>
@@ -12079,6 +12236,9 @@
         <f>IF(EXACT($F52, ""), "", VLOOKUP($F52, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H52" s="2">
+        <v>51</v>
+      </c>
       <c r="I52" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000051::bigint);</v>
@@ -12104,6 +12264,9 @@
         <f>IF(EXACT($F53, ""), "", VLOOKUP($F53, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H53" s="2">
+        <v>52</v>
+      </c>
       <c r="I53" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000052::bigint);</v>
@@ -12129,6 +12292,9 @@
         <f>IF(EXACT($F54, ""), "", VLOOKUP($F54, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H54" s="2">
+        <v>53</v>
+      </c>
       <c r="I54" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000053::bigint);</v>
@@ -12154,6 +12320,9 @@
         <f>IF(EXACT($F55, ""), "", VLOOKUP($F55, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000010</v>
       </c>
+      <c r="H55" s="2">
+        <v>54</v>
+      </c>
       <c r="I55" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000010::bigint, 97000000000054::bigint);</v>
@@ -12179,6 +12348,9 @@
         <f>IF(EXACT($F56, ""), "", VLOOKUP($F56, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H56" s="2">
+        <v>55</v>
+      </c>
       <c r="I56" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000055::bigint);</v>
@@ -12204,6 +12376,9 @@
         <f>IF(EXACT($F57, ""), "", VLOOKUP($F57, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H57" s="2">
+        <v>56</v>
+      </c>
       <c r="I57" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000056::bigint);</v>
@@ -12229,6 +12404,9 @@
         <f>IF(EXACT($F58, ""), "", VLOOKUP($F58, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H58" s="2">
+        <v>57</v>
+      </c>
       <c r="I58" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000057::bigint);</v>
@@ -12254,6 +12432,9 @@
         <f>IF(EXACT($F59, ""), "", VLOOKUP($F59, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H59" s="2">
+        <v>58</v>
+      </c>
       <c r="I59" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000058::bigint);</v>
@@ -12279,6 +12460,9 @@
         <f>IF(EXACT($F60, ""), "", VLOOKUP($F60, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H60" s="2">
+        <v>59</v>
+      </c>
       <c r="I60" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000059::bigint);</v>
@@ -12304,6 +12488,9 @@
         <f>IF(EXACT($F61, ""), "", VLOOKUP($F61, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H61" s="2">
+        <v>60</v>
+      </c>
       <c r="I61" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000060::bigint);</v>
@@ -12329,6 +12516,9 @@
         <f>IF(EXACT($F62, ""), "", VLOOKUP($F62, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H62" s="2">
+        <v>61</v>
+      </c>
       <c r="I62" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000061::bigint);</v>
@@ -12354,6 +12544,9 @@
         <f>IF(EXACT($F63, ""), "", VLOOKUP($F63, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H63" s="2">
+        <v>62</v>
+      </c>
       <c r="I63" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000062::bigint);</v>
@@ -12379,6 +12572,9 @@
         <f>IF(EXACT($F64, ""), "", VLOOKUP($F64, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H64" s="2">
+        <v>63</v>
+      </c>
       <c r="I64" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000063::bigint);</v>
@@ -12404,6 +12600,9 @@
         <f>IF(EXACT($F65, ""), "", VLOOKUP($F65, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H65" s="2">
+        <v>64</v>
+      </c>
       <c r="I65" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000064::bigint);</v>
@@ -12429,6 +12628,9 @@
         <f>IF(EXACT($F66, ""), "", VLOOKUP($F66, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H66" s="2">
+        <v>65</v>
+      </c>
       <c r="I66" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000065::bigint);</v>
@@ -12454,6 +12656,9 @@
         <f>IF(EXACT($F67, ""), "", VLOOKUP($F67, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H67" s="2">
+        <v>66</v>
+      </c>
       <c r="I67" s="9" t="str">
         <f t="shared" ref="I67:I130" si="1">IF(EXACT(G67, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuGroupMember_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", G67, "::bigint, ", B67, "::bigint);"))</f>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000066::bigint);</v>
@@ -12479,6 +12684,9 @@
         <f>IF(EXACT($F68, ""), "", VLOOKUP($F68, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H68" s="2">
+        <v>67</v>
+      </c>
       <c r="I68" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000067::bigint);</v>
@@ -12504,6 +12712,9 @@
         <f>IF(EXACT($F69, ""), "", VLOOKUP($F69, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H69" s="2">
+        <v>68</v>
+      </c>
       <c r="I69" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000068::bigint);</v>
@@ -12529,6 +12740,9 @@
         <f>IF(EXACT($F70, ""), "", VLOOKUP($F70, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H70" s="2">
+        <v>69</v>
+      </c>
       <c r="I70" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000069::bigint);</v>
@@ -12554,6 +12768,9 @@
         <f>IF(EXACT($F71, ""), "", VLOOKUP($F71, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H71" s="2">
+        <v>70</v>
+      </c>
       <c r="I71" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000070::bigint);</v>
@@ -12579,6 +12796,9 @@
         <f>IF(EXACT($F72, ""), "", VLOOKUP($F72, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H72" s="2">
+        <v>71</v>
+      </c>
       <c r="I72" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000071::bigint);</v>
@@ -12604,6 +12824,9 @@
         <f>IF(EXACT($F73, ""), "", VLOOKUP($F73, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H73" s="2">
+        <v>72</v>
+      </c>
       <c r="I73" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000072::bigint);</v>
@@ -12629,6 +12852,9 @@
         <f>IF(EXACT($F74, ""), "", VLOOKUP($F74, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H74" s="2">
+        <v>73</v>
+      </c>
       <c r="I74" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000073::bigint);</v>
@@ -12654,6 +12880,9 @@
         <f>IF(EXACT($F75, ""), "", VLOOKUP($F75, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H75" s="2">
+        <v>74</v>
+      </c>
       <c r="I75" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000074::bigint);</v>
@@ -12679,6 +12908,9 @@
         <f>IF(EXACT($F76, ""), "", VLOOKUP($F76, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H76" s="2">
+        <v>75</v>
+      </c>
       <c r="I76" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000075::bigint);</v>
@@ -12704,6 +12936,9 @@
         <f>IF(EXACT($F77, ""), "", VLOOKUP($F77, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H77" s="2">
+        <v>76</v>
+      </c>
       <c r="I77" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000076::bigint);</v>
@@ -12729,6 +12964,9 @@
         <f>IF(EXACT($F78, ""), "", VLOOKUP($F78, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H78" s="2">
+        <v>77</v>
+      </c>
       <c r="I78" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000077::bigint);</v>
@@ -12754,6 +12992,9 @@
         <f>IF(EXACT($F79, ""), "", VLOOKUP($F79, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H79" s="2">
+        <v>78</v>
+      </c>
       <c r="I79" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000078::bigint);</v>
@@ -12779,6 +13020,9 @@
         <f>IF(EXACT($F80, ""), "", VLOOKUP($F80, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H80" s="2">
+        <v>79</v>
+      </c>
       <c r="I80" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000079::bigint);</v>
@@ -12804,6 +13048,9 @@
         <f>IF(EXACT($F81, ""), "", VLOOKUP($F81, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H81" s="2">
+        <v>80</v>
+      </c>
       <c r="I81" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000080::bigint);</v>
@@ -12829,6 +13076,9 @@
         <f>IF(EXACT($F82, ""), "", VLOOKUP($F82, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H82" s="2">
+        <v>81</v>
+      </c>
       <c r="I82" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000081::bigint);</v>
@@ -12854,6 +13104,9 @@
         <f>IF(EXACT($F83, ""), "", VLOOKUP($F83, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H83" s="2">
+        <v>82</v>
+      </c>
       <c r="I83" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000082::bigint);</v>
@@ -12879,6 +13132,9 @@
         <f>IF(EXACT($F84, ""), "", VLOOKUP($F84, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H84" s="2">
+        <v>83</v>
+      </c>
       <c r="I84" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000083::bigint);</v>
@@ -12904,6 +13160,9 @@
         <f>IF(EXACT($F85, ""), "", VLOOKUP($F85, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H85" s="2">
+        <v>84</v>
+      </c>
       <c r="I85" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000084::bigint);</v>
@@ -12929,6 +13188,9 @@
         <f>IF(EXACT($F86, ""), "", VLOOKUP($F86, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H86" s="2">
+        <v>85</v>
+      </c>
       <c r="I86" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000085::bigint);</v>
@@ -12954,6 +13216,9 @@
         <f>IF(EXACT($F87, ""), "", VLOOKUP($F87, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H87" s="2">
+        <v>86</v>
+      </c>
       <c r="I87" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000086::bigint);</v>
@@ -12979,6 +13244,9 @@
         <f>IF(EXACT($F88, ""), "", VLOOKUP($F88, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H88" s="2">
+        <v>87</v>
+      </c>
       <c r="I88" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000087::bigint);</v>
@@ -13004,6 +13272,9 @@
         <f>IF(EXACT($F89, ""), "", VLOOKUP($F89, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H89" s="2">
+        <v>88</v>
+      </c>
       <c r="I89" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000088::bigint);</v>
@@ -13029,6 +13300,9 @@
         <f>IF(EXACT($F90, ""), "", VLOOKUP($F90, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H90" s="2">
+        <v>89</v>
+      </c>
       <c r="I90" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000089::bigint);</v>
@@ -13054,6 +13328,9 @@
         <f>IF(EXACT($F91, ""), "", VLOOKUP($F91, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H91" s="2">
+        <v>90</v>
+      </c>
       <c r="I91" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000090::bigint);</v>
@@ -13079,6 +13356,9 @@
         <f>IF(EXACT($F92, ""), "", VLOOKUP($F92, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H92" s="2">
+        <v>91</v>
+      </c>
       <c r="I92" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000091::bigint);</v>
@@ -13104,6 +13384,9 @@
         <f>IF(EXACT($F93, ""), "", VLOOKUP($F93, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H93" s="2">
+        <v>92</v>
+      </c>
       <c r="I93" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000092::bigint);</v>
@@ -13129,6 +13412,9 @@
         <f>IF(EXACT($F94, ""), "", VLOOKUP($F94, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H94" s="2">
+        <v>93</v>
+      </c>
       <c r="I94" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000093::bigint);</v>
@@ -13154,6 +13440,9 @@
         <f>IF(EXACT($F95, ""), "", VLOOKUP($F95, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H95" s="2">
+        <v>94</v>
+      </c>
       <c r="I95" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000094::bigint);</v>
@@ -13179,6 +13468,9 @@
         <f>IF(EXACT($F96, ""), "", VLOOKUP($F96, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H96" s="2">
+        <v>95</v>
+      </c>
       <c r="I96" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000095::bigint);</v>
@@ -13204,6 +13496,9 @@
         <f>IF(EXACT($F97, ""), "", VLOOKUP($F97, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H97" s="2">
+        <v>96</v>
+      </c>
       <c r="I97" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000096::bigint);</v>
@@ -13229,6 +13524,9 @@
         <f>IF(EXACT($F98, ""), "", VLOOKUP($F98, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H98" s="2">
+        <v>97</v>
+      </c>
       <c r="I98" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000097::bigint);</v>
@@ -13254,6 +13552,9 @@
         <f>IF(EXACT($F99, ""), "", VLOOKUP($F99, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H99" s="2">
+        <v>98</v>
+      </c>
       <c r="I99" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000098::bigint);</v>
@@ -13279,6 +13580,9 @@
         <f>IF(EXACT($F100, ""), "", VLOOKUP($F100, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H100" s="2">
+        <v>99</v>
+      </c>
       <c r="I100" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000099::bigint);</v>
@@ -13304,6 +13608,9 @@
         <f>IF(EXACT($F101, ""), "", VLOOKUP($F101, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H101" s="2">
+        <v>100</v>
+      </c>
       <c r="I101" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000100::bigint);</v>
@@ -13329,6 +13636,9 @@
         <f>IF(EXACT($F102, ""), "", VLOOKUP($F102, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H102" s="2">
+        <v>101</v>
+      </c>
       <c r="I102" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000101::bigint);</v>
@@ -13354,6 +13664,9 @@
         <f>IF(EXACT($F103, ""), "", VLOOKUP($F103, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H103" s="2">
+        <v>102</v>
+      </c>
       <c r="I103" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000102::bigint);</v>
@@ -13379,6 +13692,9 @@
         <f>IF(EXACT($F104, ""), "", VLOOKUP($F104, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H104" s="2">
+        <v>103</v>
+      </c>
       <c r="I104" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000103::bigint);</v>
@@ -13404,6 +13720,9 @@
         <f>IF(EXACT($F105, ""), "", VLOOKUP($F105, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H105" s="2">
+        <v>104</v>
+      </c>
       <c r="I105" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000104::bigint);</v>
@@ -13429,6 +13748,9 @@
         <f>IF(EXACT($F106, ""), "", VLOOKUP($F106, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H106" s="2">
+        <v>105</v>
+      </c>
       <c r="I106" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000105::bigint);</v>
@@ -13454,6 +13776,9 @@
         <f>IF(EXACT($F107, ""), "", VLOOKUP($F107, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H107" s="2">
+        <v>106</v>
+      </c>
       <c r="I107" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000106::bigint);</v>
@@ -13479,6 +13804,9 @@
         <f>IF(EXACT($F108, ""), "", VLOOKUP($F108, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H108" s="2">
+        <v>107</v>
+      </c>
       <c r="I108" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000107::bigint);</v>
@@ -13504,6 +13832,9 @@
         <f>IF(EXACT($F109, ""), "", VLOOKUP($F109, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H109" s="2">
+        <v>108</v>
+      </c>
       <c r="I109" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000108::bigint);</v>
@@ -13529,6 +13860,9 @@
         <f>IF(EXACT($F110, ""), "", VLOOKUP($F110, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H110" s="2">
+        <v>109</v>
+      </c>
       <c r="I110" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000109::bigint);</v>
@@ -13554,6 +13888,9 @@
         <f>IF(EXACT($F111, ""), "", VLOOKUP($F111, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H111" s="2">
+        <v>110</v>
+      </c>
       <c r="I111" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000110::bigint);</v>
@@ -13579,6 +13916,9 @@
         <f>IF(EXACT($F112, ""), "", VLOOKUP($F112, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H112" s="2">
+        <v>111</v>
+      </c>
       <c r="I112" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000111::bigint);</v>
@@ -13604,6 +13944,9 @@
         <f>IF(EXACT($F113, ""), "", VLOOKUP($F113, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H113" s="2">
+        <v>112</v>
+      </c>
       <c r="I113" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000112::bigint);</v>
@@ -13629,6 +13972,9 @@
         <f>IF(EXACT($F114, ""), "", VLOOKUP($F114, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H114" s="2">
+        <v>113</v>
+      </c>
       <c r="I114" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000113::bigint);</v>
@@ -13654,6 +14000,9 @@
         <f>IF(EXACT($F115, ""), "", VLOOKUP($F115, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H115" s="2">
+        <v>114</v>
+      </c>
       <c r="I115" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000114::bigint);</v>
@@ -13679,6 +14028,9 @@
         <f>IF(EXACT($F116, ""), "", VLOOKUP($F116, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H116" s="2">
+        <v>115</v>
+      </c>
       <c r="I116" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000115::bigint);</v>
@@ -13704,6 +14056,9 @@
         <f>IF(EXACT($F117, ""), "", VLOOKUP($F117, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H117" s="2">
+        <v>116</v>
+      </c>
       <c r="I117" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000116::bigint);</v>
@@ -13729,6 +14084,9 @@
         <f>IF(EXACT($F118, ""), "", VLOOKUP($F118, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H118" s="2">
+        <v>117</v>
+      </c>
       <c r="I118" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000117::bigint);</v>
@@ -13754,6 +14112,9 @@
         <f>IF(EXACT($F119, ""), "", VLOOKUP($F119, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H119" s="2">
+        <v>118</v>
+      </c>
       <c r="I119" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000118::bigint);</v>
@@ -13779,6 +14140,9 @@
         <f>IF(EXACT($F120, ""), "", VLOOKUP($F120, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H120" s="2">
+        <v>119</v>
+      </c>
       <c r="I120" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000119::bigint);</v>
@@ -13804,6 +14168,9 @@
         <f>IF(EXACT($F121, ""), "", VLOOKUP($F121, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H121" s="2">
+        <v>120</v>
+      </c>
       <c r="I121" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000120::bigint);</v>
@@ -13829,6 +14196,9 @@
         <f>IF(EXACT($F122, ""), "", VLOOKUP($F122, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H122" s="2">
+        <v>121</v>
+      </c>
       <c r="I122" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000121::bigint);</v>
@@ -13854,6 +14224,9 @@
         <f>IF(EXACT($F123, ""), "", VLOOKUP($F123, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H123" s="2">
+        <v>122</v>
+      </c>
       <c r="I123" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000122::bigint);</v>
@@ -13879,6 +14252,9 @@
         <f>IF(EXACT($F124, ""), "", VLOOKUP($F124, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H124" s="2">
+        <v>123</v>
+      </c>
       <c r="I124" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000123::bigint);</v>
@@ -13904,6 +14280,9 @@
         <f>IF(EXACT($F125, ""), "", VLOOKUP($F125, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H125" s="2">
+        <v>124</v>
+      </c>
       <c r="I125" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000124::bigint);</v>
@@ -13929,6 +14308,9 @@
         <f>IF(EXACT($F126, ""), "", VLOOKUP($F126, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H126" s="2">
+        <v>125</v>
+      </c>
       <c r="I126" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000125::bigint);</v>
@@ -13954,6 +14336,9 @@
         <f>IF(EXACT($F127, ""), "", VLOOKUP($F127, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H127" s="2">
+        <v>126</v>
+      </c>
       <c r="I127" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000126::bigint);</v>
@@ -13979,6 +14364,9 @@
         <f>IF(EXACT($F128, ""), "", VLOOKUP($F128, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H128" s="2">
+        <v>127</v>
+      </c>
       <c r="I128" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000127::bigint);</v>
@@ -14004,6 +14392,9 @@
         <f>IF(EXACT($F129, ""), "", VLOOKUP($F129, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H129" s="2">
+        <v>128</v>
+      </c>
       <c r="I129" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000128::bigint);</v>
@@ -14029,6 +14420,9 @@
         <f>IF(EXACT($F130, ""), "", VLOOKUP($F130, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H130" s="2">
+        <v>129</v>
+      </c>
       <c r="I130" s="9" t="str">
         <f t="shared" si="1"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000129::bigint);</v>
@@ -14054,6 +14448,9 @@
         <f>IF(EXACT($F131, ""), "", VLOOKUP($F131, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H131" s="2">
+        <v>130</v>
+      </c>
       <c r="I131" s="9" t="str">
         <f t="shared" ref="I131:I194" si="2">IF(EXACT(G131, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuGroupMember_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", G131, "::bigint, ", B131, "::bigint);"))</f>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000130::bigint);</v>
@@ -14079,6 +14476,9 @@
         <f>IF(EXACT($F132, ""), "", VLOOKUP($F132, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H132" s="2">
+        <v>131</v>
+      </c>
       <c r="I132" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000131::bigint);</v>
@@ -14104,6 +14504,9 @@
         <f>IF(EXACT($F133, ""), "", VLOOKUP($F133, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H133" s="2">
+        <v>132</v>
+      </c>
       <c r="I133" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000132::bigint);</v>
@@ -14129,6 +14532,9 @@
         <f>IF(EXACT($F134, ""), "", VLOOKUP($F134, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H134" s="2">
+        <v>133</v>
+      </c>
       <c r="I134" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000133::bigint);</v>
@@ -14154,6 +14560,9 @@
         <f>IF(EXACT($F135, ""), "", VLOOKUP($F135, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H135" s="2">
+        <v>134</v>
+      </c>
       <c r="I135" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000134::bigint);</v>
@@ -14179,6 +14588,9 @@
         <f>IF(EXACT($F136, ""), "", VLOOKUP($F136, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H136" s="2">
+        <v>135</v>
+      </c>
       <c r="I136" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000135::bigint);</v>
@@ -14204,6 +14616,9 @@
         <f>IF(EXACT($F137, ""), "", VLOOKUP($F137, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H137" s="2">
+        <v>136</v>
+      </c>
       <c r="I137" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000136::bigint);</v>
@@ -14229,6 +14644,9 @@
         <f>IF(EXACT($F138, ""), "", VLOOKUP($F138, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H138" s="2">
+        <v>137</v>
+      </c>
       <c r="I138" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000137::bigint);</v>
@@ -14254,6 +14672,9 @@
         <f>IF(EXACT($F139, ""), "", VLOOKUP($F139, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H139" s="2">
+        <v>138</v>
+      </c>
       <c r="I139" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000138::bigint);</v>
@@ -14279,6 +14700,9 @@
         <f>IF(EXACT($F140, ""), "", VLOOKUP($F140, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H140" s="2">
+        <v>139</v>
+      </c>
       <c r="I140" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000139::bigint);</v>
@@ -14304,6 +14728,9 @@
         <f>IF(EXACT($F141, ""), "", VLOOKUP($F141, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H141" s="2">
+        <v>140</v>
+      </c>
       <c r="I141" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000140::bigint);</v>
@@ -14329,6 +14756,9 @@
         <f>IF(EXACT($F142, ""), "", VLOOKUP($F142, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H142" s="2">
+        <v>141</v>
+      </c>
       <c r="I142" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000141::bigint);</v>
@@ -14354,6 +14784,9 @@
         <f>IF(EXACT($F143, ""), "", VLOOKUP($F143, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H143" s="2">
+        <v>142</v>
+      </c>
       <c r="I143" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000142::bigint);</v>
@@ -14379,6 +14812,9 @@
         <f>IF(EXACT($F144, ""), "", VLOOKUP($F144, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H144" s="2">
+        <v>143</v>
+      </c>
       <c r="I144" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000143::bigint);</v>
@@ -14404,6 +14840,9 @@
         <f>IF(EXACT($F145, ""), "", VLOOKUP($F145, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H145" s="2">
+        <v>144</v>
+      </c>
       <c r="I145" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000144::bigint);</v>
@@ -14429,6 +14868,9 @@
         <f>IF(EXACT($F146, ""), "", VLOOKUP($F146, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H146" s="2">
+        <v>145</v>
+      </c>
       <c r="I146" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000145::bigint);</v>
@@ -14454,6 +14896,9 @@
         <f>IF(EXACT($F147, ""), "", VLOOKUP($F147, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H147" s="2">
+        <v>146</v>
+      </c>
       <c r="I147" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000146::bigint);</v>
@@ -14479,6 +14924,9 @@
         <f>IF(EXACT($F148, ""), "", VLOOKUP($F148, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H148" s="2">
+        <v>147</v>
+      </c>
       <c r="I148" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000147::bigint);</v>
@@ -14504,6 +14952,9 @@
         <f>IF(EXACT($F149, ""), "", VLOOKUP($F149, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H149" s="2">
+        <v>148</v>
+      </c>
       <c r="I149" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000148::bigint);</v>
@@ -14529,6 +14980,9 @@
         <f>IF(EXACT($F150, ""), "", VLOOKUP($F150, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H150" s="2">
+        <v>149</v>
+      </c>
       <c r="I150" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000149::bigint);</v>
@@ -14554,6 +15008,9 @@
         <f>IF(EXACT($F151, ""), "", VLOOKUP($F151, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H151" s="2">
+        <v>150</v>
+      </c>
       <c r="I151" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000150::bigint);</v>
@@ -14579,6 +15036,9 @@
         <f>IF(EXACT($F152, ""), "", VLOOKUP($F152, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H152" s="2">
+        <v>151</v>
+      </c>
       <c r="I152" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000151::bigint);</v>
@@ -14604,6 +15064,9 @@
         <f>IF(EXACT($F153, ""), "", VLOOKUP($F153, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H153" s="2">
+        <v>152</v>
+      </c>
       <c r="I153" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000152::bigint);</v>
@@ -14629,6 +15092,9 @@
         <f>IF(EXACT($F154, ""), "", VLOOKUP($F154, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H154" s="2">
+        <v>153</v>
+      </c>
       <c r="I154" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000153::bigint);</v>
@@ -14654,6 +15120,9 @@
         <f>IF(EXACT($F155, ""), "", VLOOKUP($F155, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H155" s="2">
+        <v>154</v>
+      </c>
       <c r="I155" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000154::bigint);</v>
@@ -14679,6 +15148,9 @@
         <f>IF(EXACT($F156, ""), "", VLOOKUP($F156, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H156" s="2">
+        <v>155</v>
+      </c>
       <c r="I156" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000155::bigint);</v>
@@ -14704,6 +15176,9 @@
         <f>IF(EXACT($F157, ""), "", VLOOKUP($F157, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H157" s="2">
+        <v>156</v>
+      </c>
       <c r="I157" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000156::bigint);</v>
@@ -14729,6 +15204,9 @@
         <f>IF(EXACT($F158, ""), "", VLOOKUP($F158, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H158" s="2">
+        <v>157</v>
+      </c>
       <c r="I158" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000157::bigint);</v>
@@ -14754,6 +15232,9 @@
         <f>IF(EXACT($F159, ""), "", VLOOKUP($F159, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H159" s="2">
+        <v>158</v>
+      </c>
       <c r="I159" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000158::bigint);</v>
@@ -14779,6 +15260,9 @@
         <f>IF(EXACT($F160, ""), "", VLOOKUP($F160, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H160" s="2">
+        <v>159</v>
+      </c>
       <c r="I160" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000159::bigint);</v>
@@ -14804,6 +15288,9 @@
         <f>IF(EXACT($F161, ""), "", VLOOKUP($F161, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H161" s="2">
+        <v>160</v>
+      </c>
       <c r="I161" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000160::bigint);</v>
@@ -14829,6 +15316,9 @@
         <f>IF(EXACT($F162, ""), "", VLOOKUP($F162, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H162" s="2">
+        <v>161</v>
+      </c>
       <c r="I162" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000161::bigint);</v>
@@ -14854,6 +15344,9 @@
         <f>IF(EXACT($F163, ""), "", VLOOKUP($F163, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H163" s="2">
+        <v>162</v>
+      </c>
       <c r="I163" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000162::bigint);</v>
@@ -14879,6 +15372,9 @@
         <f>IF(EXACT($F164, ""), "", VLOOKUP($F164, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H164" s="2">
+        <v>163</v>
+      </c>
       <c r="I164" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000163::bigint);</v>
@@ -14904,6 +15400,9 @@
         <f>IF(EXACT($F165, ""), "", VLOOKUP($F165, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H165" s="2">
+        <v>164</v>
+      </c>
       <c r="I165" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000164::bigint);</v>
@@ -14929,6 +15428,9 @@
         <f>IF(EXACT($F166, ""), "", VLOOKUP($F166, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H166" s="2">
+        <v>165</v>
+      </c>
       <c r="I166" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000165::bigint);</v>
@@ -14954,6 +15456,9 @@
         <f>IF(EXACT($F167, ""), "", VLOOKUP($F167, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H167" s="2">
+        <v>166</v>
+      </c>
       <c r="I167" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000166::bigint);</v>
@@ -14979,6 +15484,9 @@
         <f>IF(EXACT($F168, ""), "", VLOOKUP($F168, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H168" s="2">
+        <v>167</v>
+      </c>
       <c r="I168" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000167::bigint);</v>
@@ -15004,6 +15512,9 @@
         <f>IF(EXACT($F169, ""), "", VLOOKUP($F169, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H169" s="2">
+        <v>168</v>
+      </c>
       <c r="I169" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000168::bigint);</v>
@@ -15029,6 +15540,9 @@
         <f>IF(EXACT($F170, ""), "", VLOOKUP($F170, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H170" s="2">
+        <v>169</v>
+      </c>
       <c r="I170" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000169::bigint);</v>
@@ -15054,6 +15568,9 @@
         <f>IF(EXACT($F171, ""), "", VLOOKUP($F171, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H171" s="2">
+        <v>170</v>
+      </c>
       <c r="I171" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000170::bigint);</v>
@@ -15079,6 +15596,9 @@
         <f>IF(EXACT($F172, ""), "", VLOOKUP($F172, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H172" s="2">
+        <v>171</v>
+      </c>
       <c r="I172" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000171::bigint);</v>
@@ -15104,6 +15624,9 @@
         <f>IF(EXACT($F173, ""), "", VLOOKUP($F173, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H173" s="2">
+        <v>172</v>
+      </c>
       <c r="I173" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000172::bigint);</v>
@@ -15129,6 +15652,9 @@
         <f>IF(EXACT($F174, ""), "", VLOOKUP($F174, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H174" s="2">
+        <v>173</v>
+      </c>
       <c r="I174" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000173::bigint);</v>
@@ -15154,6 +15680,9 @@
         <f>IF(EXACT($F175, ""), "", VLOOKUP($F175, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H175" s="2">
+        <v>174</v>
+      </c>
       <c r="I175" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000174::bigint);</v>
@@ -15179,6 +15708,9 @@
         <f>IF(EXACT($F176, ""), "", VLOOKUP($F176, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H176" s="2">
+        <v>175</v>
+      </c>
       <c r="I176" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000175::bigint);</v>
@@ -15204,6 +15736,9 @@
         <f>IF(EXACT($F177, ""), "", VLOOKUP($F177, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H177" s="2">
+        <v>176</v>
+      </c>
       <c r="I177" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000176::bigint);</v>
@@ -15229,6 +15764,9 @@
         <f>IF(EXACT($F178, ""), "", VLOOKUP($F178, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H178" s="2">
+        <v>177</v>
+      </c>
       <c r="I178" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000177::bigint);</v>
@@ -15254,6 +15792,9 @@
         <f>IF(EXACT($F179, ""), "", VLOOKUP($F179, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H179" s="2">
+        <v>178</v>
+      </c>
       <c r="I179" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000178::bigint);</v>
@@ -15279,6 +15820,9 @@
         <f>IF(EXACT($F180, ""), "", VLOOKUP($F180, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H180" s="2">
+        <v>179</v>
+      </c>
       <c r="I180" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000179::bigint);</v>
@@ -15304,6 +15848,9 @@
         <f>IF(EXACT($F181, ""), "", VLOOKUP($F181, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H181" s="2">
+        <v>180</v>
+      </c>
       <c r="I181" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000180::bigint);</v>
@@ -15329,6 +15876,9 @@
         <f>IF(EXACT($F182, ""), "", VLOOKUP($F182, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H182" s="2">
+        <v>181</v>
+      </c>
       <c r="I182" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000181::bigint);</v>
@@ -15354,6 +15904,9 @@
         <f>IF(EXACT($F183, ""), "", VLOOKUP($F183, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H183" s="2">
+        <v>182</v>
+      </c>
       <c r="I183" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000182::bigint);</v>
@@ -15379,6 +15932,9 @@
         <f>IF(EXACT($F184, ""), "", VLOOKUP($F184, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H184" s="2">
+        <v>183</v>
+      </c>
       <c r="I184" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000183::bigint);</v>
@@ -15404,6 +15960,9 @@
         <f>IF(EXACT($F185, ""), "", VLOOKUP($F185, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H185" s="2">
+        <v>184</v>
+      </c>
       <c r="I185" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000184::bigint);</v>
@@ -15429,6 +15988,9 @@
         <f>IF(EXACT($F186, ""), "", VLOOKUP($F186, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H186" s="2">
+        <v>185</v>
+      </c>
       <c r="I186" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000185::bigint);</v>
@@ -15454,6 +16016,9 @@
         <f>IF(EXACT($F187, ""), "", VLOOKUP($F187, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H187" s="2">
+        <v>186</v>
+      </c>
       <c r="I187" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000186::bigint);</v>
@@ -15479,6 +16044,9 @@
         <f>IF(EXACT($F188, ""), "", VLOOKUP($F188, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H188" s="2">
+        <v>187</v>
+      </c>
       <c r="I188" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000187::bigint);</v>
@@ -15504,6 +16072,9 @@
         <f>IF(EXACT($F189, ""), "", VLOOKUP($F189, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H189" s="2">
+        <v>188</v>
+      </c>
       <c r="I189" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000188::bigint);</v>
@@ -15529,6 +16100,9 @@
         <f>IF(EXACT($F190, ""), "", VLOOKUP($F190, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H190" s="2">
+        <v>189</v>
+      </c>
       <c r="I190" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000189::bigint);</v>
@@ -15554,6 +16128,9 @@
         <f>IF(EXACT($F191, ""), "", VLOOKUP($F191, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H191" s="2">
+        <v>190</v>
+      </c>
       <c r="I191" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000190::bigint);</v>
@@ -15579,6 +16156,9 @@
         <f>IF(EXACT($F192, ""), "", VLOOKUP($F192, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H192" s="2">
+        <v>191</v>
+      </c>
       <c r="I192" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000191::bigint);</v>
@@ -15604,6 +16184,9 @@
         <f>IF(EXACT($F193, ""), "", VLOOKUP($F193, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H193" s="2">
+        <v>192</v>
+      </c>
       <c r="I193" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000192::bigint);</v>
@@ -15629,6 +16212,9 @@
         <f>IF(EXACT($F194, ""), "", VLOOKUP($F194, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H194" s="2">
+        <v>193</v>
+      </c>
       <c r="I194" s="9" t="str">
         <f t="shared" si="2"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000193::bigint);</v>
@@ -15654,6 +16240,9 @@
         <f>IF(EXACT($F195, ""), "", VLOOKUP($F195, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H195" s="2">
+        <v>194</v>
+      </c>
       <c r="I195" s="9" t="str">
         <f t="shared" ref="I195:I258" si="3">IF(EXACT(G195, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuGroupMember_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", G195, "::bigint, ", B195, "::bigint);"))</f>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000194::bigint);</v>
@@ -15679,6 +16268,9 @@
         <f>IF(EXACT($F196, ""), "", VLOOKUP($F196, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H196" s="2">
+        <v>195</v>
+      </c>
       <c r="I196" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000195::bigint);</v>
@@ -15704,6 +16296,9 @@
         <f>IF(EXACT($F197, ""), "", VLOOKUP($F197, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H197" s="2">
+        <v>196</v>
+      </c>
       <c r="I197" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000196::bigint);</v>
@@ -15729,6 +16324,9 @@
         <f>IF(EXACT($F198, ""), "", VLOOKUP($F198, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H198" s="2">
+        <v>197</v>
+      </c>
       <c r="I198" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000197::bigint);</v>
@@ -15754,6 +16352,9 @@
         <f>IF(EXACT($F199, ""), "", VLOOKUP($F199, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H199" s="2">
+        <v>198</v>
+      </c>
       <c r="I199" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000198::bigint);</v>
@@ -15779,6 +16380,9 @@
         <f>IF(EXACT($F200, ""), "", VLOOKUP($F200, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H200" s="2">
+        <v>199</v>
+      </c>
       <c r="I200" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000199::bigint);</v>
@@ -15804,6 +16408,9 @@
         <f>IF(EXACT($F201, ""), "", VLOOKUP($F201, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H201" s="2">
+        <v>200</v>
+      </c>
       <c r="I201" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000200::bigint);</v>
@@ -15829,6 +16436,9 @@
         <f>IF(EXACT($F202, ""), "", VLOOKUP($F202, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H202" s="2">
+        <v>201</v>
+      </c>
       <c r="I202" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000201::bigint);</v>
@@ -15854,6 +16464,9 @@
         <f>IF(EXACT($F203, ""), "", VLOOKUP($F203, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H203" s="2">
+        <v>202</v>
+      </c>
       <c r="I203" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000202::bigint);</v>
@@ -15879,6 +16492,9 @@
         <f>IF(EXACT($F204, ""), "", VLOOKUP($F204, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H204" s="2">
+        <v>203</v>
+      </c>
       <c r="I204" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000203::bigint);</v>
@@ -15904,6 +16520,9 @@
         <f>IF(EXACT($F205, ""), "", VLOOKUP($F205, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H205" s="2">
+        <v>204</v>
+      </c>
       <c r="I205" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000204::bigint);</v>
@@ -15929,6 +16548,9 @@
         <f>IF(EXACT($F206, ""), "", VLOOKUP($F206, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H206" s="2">
+        <v>205</v>
+      </c>
       <c r="I206" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000205::bigint);</v>
@@ -15954,6 +16576,9 @@
         <f>IF(EXACT($F207, ""), "", VLOOKUP($F207, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H207" s="2">
+        <v>206</v>
+      </c>
       <c r="I207" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000206::bigint);</v>
@@ -15979,6 +16604,9 @@
         <f>IF(EXACT($F208, ""), "", VLOOKUP($F208, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H208" s="2">
+        <v>207</v>
+      </c>
       <c r="I208" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000207::bigint);</v>
@@ -16004,6 +16632,9 @@
         <f>IF(EXACT($F209, ""), "", VLOOKUP($F209, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H209" s="2">
+        <v>208</v>
+      </c>
       <c r="I209" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000208::bigint);</v>
@@ -16029,6 +16660,9 @@
         <f>IF(EXACT($F210, ""), "", VLOOKUP($F210, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H210" s="2">
+        <v>209</v>
+      </c>
       <c r="I210" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000209::bigint);</v>
@@ -16054,6 +16688,9 @@
         <f>IF(EXACT($F211, ""), "", VLOOKUP($F211, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H211" s="2">
+        <v>210</v>
+      </c>
       <c r="I211" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000210::bigint);</v>
@@ -16079,6 +16716,9 @@
         <f>IF(EXACT($F212, ""), "", VLOOKUP($F212, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H212" s="2">
+        <v>211</v>
+      </c>
       <c r="I212" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000211::bigint);</v>
@@ -16104,6 +16744,9 @@
         <f>IF(EXACT($F213, ""), "", VLOOKUP($F213, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H213" s="2">
+        <v>212</v>
+      </c>
       <c r="I213" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000212::bigint);</v>
@@ -16129,6 +16772,9 @@
         <f>IF(EXACT($F214, ""), "", VLOOKUP($F214, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H214" s="2">
+        <v>213</v>
+      </c>
       <c r="I214" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000213::bigint);</v>
@@ -16154,6 +16800,9 @@
         <f>IF(EXACT($F215, ""), "", VLOOKUP($F215, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H215" s="2">
+        <v>214</v>
+      </c>
       <c r="I215" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000214::bigint);</v>
@@ -16179,6 +16828,9 @@
         <f>IF(EXACT($F216, ""), "", VLOOKUP($F216, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H216" s="2">
+        <v>215</v>
+      </c>
       <c r="I216" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000215::bigint);</v>
@@ -16204,6 +16856,9 @@
         <f>IF(EXACT($F217, ""), "", VLOOKUP($F217, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H217" s="2">
+        <v>216</v>
+      </c>
       <c r="I217" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000216::bigint);</v>
@@ -16229,6 +16884,9 @@
         <f>IF(EXACT($F218, ""), "", VLOOKUP($F218, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H218" s="2">
+        <v>217</v>
+      </c>
       <c r="I218" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000217::bigint);</v>
@@ -16254,6 +16912,9 @@
         <f>IF(EXACT($F219, ""), "", VLOOKUP($F219, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H219" s="2">
+        <v>218</v>
+      </c>
       <c r="I219" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000218::bigint);</v>
@@ -16279,6 +16940,9 @@
         <f>IF(EXACT($F220, ""), "", VLOOKUP($F220, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H220" s="2">
+        <v>219</v>
+      </c>
       <c r="I220" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000219::bigint);</v>
@@ -16304,6 +16968,9 @@
         <f>IF(EXACT($F221, ""), "", VLOOKUP($F221, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H221" s="2">
+        <v>220</v>
+      </c>
       <c r="I221" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000220::bigint);</v>
@@ -16329,6 +16996,9 @@
         <f>IF(EXACT($F222, ""), "", VLOOKUP($F222, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H222" s="2">
+        <v>221</v>
+      </c>
       <c r="I222" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000221::bigint);</v>
@@ -16354,6 +17024,9 @@
         <f>IF(EXACT($F223, ""), "", VLOOKUP($F223, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H223" s="2">
+        <v>222</v>
+      </c>
       <c r="I223" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000222::bigint);</v>
@@ -16379,6 +17052,9 @@
         <f>IF(EXACT($F224, ""), "", VLOOKUP($F224, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H224" s="2">
+        <v>223</v>
+      </c>
       <c r="I224" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000223::bigint);</v>
@@ -16404,6 +17080,9 @@
         <f>IF(EXACT($F225, ""), "", VLOOKUP($F225, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H225" s="2">
+        <v>224</v>
+      </c>
       <c r="I225" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000224::bigint);</v>
@@ -16429,6 +17108,9 @@
         <f>IF(EXACT($F226, ""), "", VLOOKUP($F226, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H226" s="2">
+        <v>225</v>
+      </c>
       <c r="I226" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000225::bigint);</v>
@@ -16454,6 +17136,9 @@
         <f>IF(EXACT($F227, ""), "", VLOOKUP($F227, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H227" s="2">
+        <v>226</v>
+      </c>
       <c r="I227" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000226::bigint);</v>
@@ -16479,6 +17164,9 @@
         <f>IF(EXACT($F228, ""), "", VLOOKUP($F228, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H228" s="2">
+        <v>227</v>
+      </c>
       <c r="I228" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000227::bigint);</v>
@@ -16504,6 +17192,9 @@
         <f>IF(EXACT($F229, ""), "", VLOOKUP($F229, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H229" s="2">
+        <v>228</v>
+      </c>
       <c r="I229" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000228::bigint);</v>
@@ -16529,6 +17220,9 @@
         <f>IF(EXACT($F230, ""), "", VLOOKUP($F230, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H230" s="2">
+        <v>229</v>
+      </c>
       <c r="I230" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000229::bigint);</v>
@@ -16554,6 +17248,9 @@
         <f>IF(EXACT($F231, ""), "", VLOOKUP($F231, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H231" s="2">
+        <v>230</v>
+      </c>
       <c r="I231" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000230::bigint);</v>
@@ -16579,6 +17276,9 @@
         <f>IF(EXACT($F232, ""), "", VLOOKUP($F232, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H232" s="2">
+        <v>231</v>
+      </c>
       <c r="I232" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000231::bigint);</v>
@@ -16604,6 +17304,9 @@
         <f>IF(EXACT($F233, ""), "", VLOOKUP($F233, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H233" s="2">
+        <v>232</v>
+      </c>
       <c r="I233" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000232::bigint);</v>
@@ -16629,6 +17332,9 @@
         <f>IF(EXACT($F234, ""), "", VLOOKUP($F234, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H234" s="2">
+        <v>233</v>
+      </c>
       <c r="I234" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000233::bigint);</v>
@@ -16654,6 +17360,9 @@
         <f>IF(EXACT($F235, ""), "", VLOOKUP($F235, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H235" s="2">
+        <v>234</v>
+      </c>
       <c r="I235" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000234::bigint);</v>
@@ -16679,6 +17388,9 @@
         <f>IF(EXACT($F236, ""), "", VLOOKUP($F236, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H236" s="2">
+        <v>235</v>
+      </c>
       <c r="I236" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000235::bigint);</v>
@@ -16704,6 +17416,9 @@
         <f>IF(EXACT($F237, ""), "", VLOOKUP($F237, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H237" s="2">
+        <v>236</v>
+      </c>
       <c r="I237" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000236::bigint);</v>
@@ -16729,6 +17444,9 @@
         <f>IF(EXACT($F238, ""), "", VLOOKUP($F238, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H238" s="2">
+        <v>237</v>
+      </c>
       <c r="I238" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000237::bigint);</v>
@@ -16754,6 +17472,9 @@
         <f>IF(EXACT($F239, ""), "", VLOOKUP($F239, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H239" s="2">
+        <v>238</v>
+      </c>
       <c r="I239" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000238::bigint);</v>
@@ -16779,6 +17500,9 @@
         <f>IF(EXACT($F240, ""), "", VLOOKUP($F240, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H240" s="2">
+        <v>239</v>
+      </c>
       <c r="I240" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000239::bigint);</v>
@@ -16804,6 +17528,9 @@
         <f>IF(EXACT($F241, ""), "", VLOOKUP($F241, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H241" s="2">
+        <v>240</v>
+      </c>
       <c r="I241" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000240::bigint);</v>
@@ -16829,6 +17556,9 @@
         <f>IF(EXACT($F242, ""), "", VLOOKUP($F242, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H242" s="2">
+        <v>241</v>
+      </c>
       <c r="I242" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000241::bigint);</v>
@@ -16854,6 +17584,9 @@
         <f>IF(EXACT($F243, ""), "", VLOOKUP($F243, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H243" s="2">
+        <v>242</v>
+      </c>
       <c r="I243" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000242::bigint);</v>
@@ -16879,6 +17612,9 @@
         <f>IF(EXACT($F244, ""), "", VLOOKUP($F244, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H244" s="2">
+        <v>243</v>
+      </c>
       <c r="I244" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000243::bigint);</v>
@@ -16904,6 +17640,9 @@
         <f>IF(EXACT($F245, ""), "", VLOOKUP($F245, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H245" s="2">
+        <v>244</v>
+      </c>
       <c r="I245" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000244::bigint);</v>
@@ -16929,6 +17668,9 @@
         <f>IF(EXACT($F246, ""), "", VLOOKUP($F246, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H246" s="2">
+        <v>245</v>
+      </c>
       <c r="I246" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000245::bigint);</v>
@@ -16954,6 +17696,9 @@
         <f>IF(EXACT($F247, ""), "", VLOOKUP($F247, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H247" s="2">
+        <v>246</v>
+      </c>
       <c r="I247" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000246::bigint);</v>
@@ -16979,6 +17724,9 @@
         <f>IF(EXACT($F248, ""), "", VLOOKUP($F248, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H248" s="2">
+        <v>247</v>
+      </c>
       <c r="I248" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000247::bigint);</v>
@@ -17004,6 +17752,9 @@
         <f>IF(EXACT($F249, ""), "", VLOOKUP($F249, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H249" s="2">
+        <v>248</v>
+      </c>
       <c r="I249" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000248::bigint);</v>
@@ -17029,6 +17780,9 @@
         <f>IF(EXACT($F250, ""), "", VLOOKUP($F250, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H250" s="2">
+        <v>249</v>
+      </c>
       <c r="I250" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000249::bigint);</v>
@@ -17054,6 +17808,9 @@
         <f>IF(EXACT($F251, ""), "", VLOOKUP($F251, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H251" s="2">
+        <v>250</v>
+      </c>
       <c r="I251" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000250::bigint);</v>
@@ -17079,6 +17836,9 @@
         <f>IF(EXACT($F252, ""), "", VLOOKUP($F252, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H252" s="2">
+        <v>251</v>
+      </c>
       <c r="I252" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000251::bigint);</v>
@@ -17104,6 +17864,9 @@
         <f>IF(EXACT($F253, ""), "", VLOOKUP($F253, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H253" s="2">
+        <v>252</v>
+      </c>
       <c r="I253" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000252::bigint);</v>
@@ -17129,6 +17892,9 @@
         <f>IF(EXACT($F254, ""), "", VLOOKUP($F254, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H254" s="2">
+        <v>253</v>
+      </c>
       <c r="I254" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000253::bigint);</v>
@@ -17154,6 +17920,9 @@
         <f>IF(EXACT($F255, ""), "", VLOOKUP($F255, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H255" s="2">
+        <v>254</v>
+      </c>
       <c r="I255" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000254::bigint);</v>
@@ -17179,6 +17948,9 @@
         <f>IF(EXACT($F256, ""), "", VLOOKUP($F256, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H256" s="2">
+        <v>255</v>
+      </c>
       <c r="I256" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000255::bigint);</v>
@@ -17204,6 +17976,9 @@
         <f>IF(EXACT($F257, ""), "", VLOOKUP($F257, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H257" s="2">
+        <v>256</v>
+      </c>
       <c r="I257" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000256::bigint);</v>
@@ -17229,6 +18004,9 @@
         <f>IF(EXACT($F258, ""), "", VLOOKUP($F258, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H258" s="2">
+        <v>257</v>
+      </c>
       <c r="I258" s="9" t="str">
         <f t="shared" si="3"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000257::bigint);</v>
@@ -17254,6 +18032,9 @@
         <f>IF(EXACT($F259, ""), "", VLOOKUP($F259, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H259" s="2">
+        <v>258</v>
+      </c>
       <c r="I259" s="9" t="str">
         <f t="shared" ref="I259:I322" si="4">IF(EXACT(G259, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuGroupMember_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", G259, "::bigint, ", B259, "::bigint);"))</f>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000258::bigint);</v>
@@ -17279,6 +18060,9 @@
         <f>IF(EXACT($F260, ""), "", VLOOKUP($F260, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H260" s="2">
+        <v>259</v>
+      </c>
       <c r="I260" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000259::bigint);</v>
@@ -17304,6 +18088,9 @@
         <f>IF(EXACT($F261, ""), "", VLOOKUP($F261, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H261" s="2">
+        <v>260</v>
+      </c>
       <c r="I261" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000260::bigint);</v>
@@ -17329,6 +18116,9 @@
         <f>IF(EXACT($F262, ""), "", VLOOKUP($F262, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H262" s="2">
+        <v>261</v>
+      </c>
       <c r="I262" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000261::bigint);</v>
@@ -17354,6 +18144,9 @@
         <f>IF(EXACT($F263, ""), "", VLOOKUP($F263, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H263" s="2">
+        <v>262</v>
+      </c>
       <c r="I263" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000262::bigint);</v>
@@ -17379,6 +18172,9 @@
         <f>IF(EXACT($F264, ""), "", VLOOKUP($F264, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H264" s="2">
+        <v>263</v>
+      </c>
       <c r="I264" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000263::bigint);</v>
@@ -17404,6 +18200,9 @@
         <f>IF(EXACT($F265, ""), "", VLOOKUP($F265, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H265" s="2">
+        <v>264</v>
+      </c>
       <c r="I265" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000264::bigint);</v>
@@ -17429,6 +18228,9 @@
         <f>IF(EXACT($F266, ""), "", VLOOKUP($F266, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H266" s="2">
+        <v>265</v>
+      </c>
       <c r="I266" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000265::bigint);</v>
@@ -17454,6 +18256,9 @@
         <f>IF(EXACT($F267, ""), "", VLOOKUP($F267, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H267" s="2">
+        <v>266</v>
+      </c>
       <c r="I267" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000266::bigint);</v>
@@ -17479,6 +18284,9 @@
         <f>IF(EXACT($F268, ""), "", VLOOKUP($F268, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H268" s="2">
+        <v>267</v>
+      </c>
       <c r="I268" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000267::bigint);</v>
@@ -17504,6 +18312,9 @@
         <f>IF(EXACT($F269, ""), "", VLOOKUP($F269, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H269" s="2">
+        <v>268</v>
+      </c>
       <c r="I269" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000268::bigint);</v>
@@ -17529,6 +18340,9 @@
         <f>IF(EXACT($F270, ""), "", VLOOKUP($F270, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H270" s="2">
+        <v>269</v>
+      </c>
       <c r="I270" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000269::bigint);</v>
@@ -17554,6 +18368,9 @@
         <f>IF(EXACT($F271, ""), "", VLOOKUP($F271, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H271" s="2">
+        <v>270</v>
+      </c>
       <c r="I271" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000270::bigint);</v>
@@ -17579,6 +18396,9 @@
         <f>IF(EXACT($F272, ""), "", VLOOKUP($F272, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H272" s="2">
+        <v>271</v>
+      </c>
       <c r="I272" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000271::bigint);</v>
@@ -17604,6 +18424,9 @@
         <f>IF(EXACT($F273, ""), "", VLOOKUP($F273, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H273" s="2">
+        <v>272</v>
+      </c>
       <c r="I273" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000272::bigint);</v>
@@ -17629,6 +18452,9 @@
         <f>IF(EXACT($F274, ""), "", VLOOKUP($F274, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H274" s="2">
+        <v>273</v>
+      </c>
       <c r="I274" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000273::bigint);</v>
@@ -17654,6 +18480,9 @@
         <f>IF(EXACT($F275, ""), "", VLOOKUP($F275, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H275" s="2">
+        <v>274</v>
+      </c>
       <c r="I275" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000274::bigint);</v>
@@ -17679,6 +18508,9 @@
         <f>IF(EXACT($F276, ""), "", VLOOKUP($F276, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H276" s="2">
+        <v>275</v>
+      </c>
       <c r="I276" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000275::bigint);</v>
@@ -17704,6 +18536,9 @@
         <f>IF(EXACT($F277, ""), "", VLOOKUP($F277, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H277" s="2">
+        <v>276</v>
+      </c>
       <c r="I277" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000276::bigint);</v>
@@ -17729,6 +18564,9 @@
         <f>IF(EXACT($F278, ""), "", VLOOKUP($F278, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H278" s="2">
+        <v>277</v>
+      </c>
       <c r="I278" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000277::bigint);</v>
@@ -17754,6 +18592,9 @@
         <f>IF(EXACT($F279, ""), "", VLOOKUP($F279, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000009</v>
       </c>
+      <c r="H279" s="2">
+        <v>278</v>
+      </c>
       <c r="I279" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000009::bigint, 97000000000278::bigint);</v>
@@ -17779,6 +18620,9 @@
         <f>IF(EXACT($F280, ""), "", VLOOKUP($F280, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H280" s="2">
+        <v>279</v>
+      </c>
       <c r="I280" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000279::bigint);</v>
@@ -17804,6 +18648,9 @@
         <f>IF(EXACT($F281, ""), "", VLOOKUP($F281, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H281" s="2">
+        <v>280</v>
+      </c>
       <c r="I281" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000280::bigint);</v>
@@ -17829,6 +18676,9 @@
         <f>IF(EXACT($F282, ""), "", VLOOKUP($F282, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H282" s="2">
+        <v>281</v>
+      </c>
       <c r="I282" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000281::bigint);</v>
@@ -17854,6 +18704,9 @@
         <f>IF(EXACT($F283, ""), "", VLOOKUP($F283, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H283" s="2">
+        <v>282</v>
+      </c>
       <c r="I283" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000282::bigint);</v>
@@ -17879,6 +18732,9 @@
         <f>IF(EXACT($F284, ""), "", VLOOKUP($F284, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H284" s="2">
+        <v>283</v>
+      </c>
       <c r="I284" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000283::bigint);</v>
@@ -17904,6 +18760,9 @@
         <f>IF(EXACT($F285, ""), "", VLOOKUP($F285, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H285" s="2">
+        <v>284</v>
+      </c>
       <c r="I285" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000284::bigint);</v>
@@ -17929,6 +18788,9 @@
         <f>IF(EXACT($F286, ""), "", VLOOKUP($F286, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H286" s="2">
+        <v>285</v>
+      </c>
       <c r="I286" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000285::bigint);</v>
@@ -17954,6 +18816,9 @@
         <f>IF(EXACT($F287, ""), "", VLOOKUP($F287, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000002</v>
       </c>
+      <c r="H287" s="2">
+        <v>286</v>
+      </c>
       <c r="I287" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000002::bigint, 97000000000286::bigint);</v>
@@ -17979,6 +18844,9 @@
         <f>IF(EXACT($F288, ""), "", VLOOKUP($F288, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000002</v>
       </c>
+      <c r="H288" s="2">
+        <v>287</v>
+      </c>
       <c r="I288" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000002::bigint, 97000000000287::bigint);</v>
@@ -18004,6 +18872,9 @@
         <f>IF(EXACT($F289, ""), "", VLOOKUP($F289, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000002</v>
       </c>
+      <c r="H289" s="2">
+        <v>288</v>
+      </c>
       <c r="I289" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000002::bigint, 97000000000288::bigint);</v>
@@ -18029,6 +18900,9 @@
         <f>IF(EXACT($F290, ""), "", VLOOKUP($F290, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000002</v>
       </c>
+      <c r="H290" s="2">
+        <v>289</v>
+      </c>
       <c r="I290" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000002::bigint, 97000000000289::bigint);</v>
@@ -18054,6 +18928,9 @@
         <f>IF(EXACT($F291, ""), "", VLOOKUP($F291, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000002</v>
       </c>
+      <c r="H291" s="2">
+        <v>290</v>
+      </c>
       <c r="I291" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000002::bigint, 97000000000290::bigint);</v>
@@ -18079,6 +18956,9 @@
         <f>IF(EXACT($F292, ""), "", VLOOKUP($F292, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000002</v>
       </c>
+      <c r="H292" s="2">
+        <v>291</v>
+      </c>
       <c r="I292" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000002::bigint, 97000000000291::bigint);</v>
@@ -18104,6 +18984,9 @@
         <f>IF(EXACT($F293, ""), "", VLOOKUP($F293, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000002</v>
       </c>
+      <c r="H293" s="2">
+        <v>292</v>
+      </c>
       <c r="I293" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000002::bigint, 97000000000292::bigint);</v>
@@ -18129,6 +19012,9 @@
         <f>IF(EXACT($F294, ""), "", VLOOKUP($F294, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000002</v>
       </c>
+      <c r="H294" s="2">
+        <v>293</v>
+      </c>
       <c r="I294" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000002::bigint, 97000000000293::bigint);</v>
@@ -18154,6 +19040,9 @@
         <f>IF(EXACT($F295, ""), "", VLOOKUP($F295, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000002</v>
       </c>
+      <c r="H295" s="2">
+        <v>294</v>
+      </c>
       <c r="I295" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000002::bigint, 97000000000294::bigint);</v>
@@ -18179,6 +19068,9 @@
         <f>IF(EXACT($F296, ""), "", VLOOKUP($F296, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000002</v>
       </c>
+      <c r="H296" s="2">
+        <v>295</v>
+      </c>
       <c r="I296" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000002::bigint, 97000000000295::bigint);</v>
@@ -18204,6 +19096,9 @@
         <f>IF(EXACT($F297, ""), "", VLOOKUP($F297, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000002</v>
       </c>
+      <c r="H297" s="2">
+        <v>296</v>
+      </c>
       <c r="I297" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000002::bigint, 97000000000296::bigint);</v>
@@ -18229,6 +19124,9 @@
         <f>IF(EXACT($F298, ""), "", VLOOKUP($F298, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000002</v>
       </c>
+      <c r="H298" s="2">
+        <v>297</v>
+      </c>
       <c r="I298" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000002::bigint, 97000000000297::bigint);</v>
@@ -18254,6 +19152,9 @@
         <f>IF(EXACT($F299, ""), "", VLOOKUP($F299, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000002</v>
       </c>
+      <c r="H299" s="2">
+        <v>298</v>
+      </c>
       <c r="I299" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000002::bigint, 97000000000298::bigint);</v>
@@ -18279,6 +19180,9 @@
         <f>IF(EXACT($F300, ""), "", VLOOKUP($F300, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000002</v>
       </c>
+      <c r="H300" s="2">
+        <v>299</v>
+      </c>
       <c r="I300" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000002::bigint, 97000000000299::bigint);</v>
@@ -18304,6 +19208,9 @@
         <f>IF(EXACT($F301, ""), "", VLOOKUP($F301, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000002</v>
       </c>
+      <c r="H301" s="2">
+        <v>300</v>
+      </c>
       <c r="I301" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000002::bigint, 97000000000300::bigint);</v>
@@ -18329,6 +19236,9 @@
         <f>IF(EXACT($F302, ""), "", VLOOKUP($F302, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000002</v>
       </c>
+      <c r="H302" s="2">
+        <v>301</v>
+      </c>
       <c r="I302" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000002::bigint, 97000000000301::bigint);</v>
@@ -18354,6 +19264,9 @@
         <f>IF(EXACT($F303, ""), "", VLOOKUP($F303, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000002</v>
       </c>
+      <c r="H303" s="2">
+        <v>302</v>
+      </c>
       <c r="I303" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000002::bigint, 97000000000302::bigint);</v>
@@ -18379,6 +19292,9 @@
         <f>IF(EXACT($F304, ""), "", VLOOKUP($F304, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000002</v>
       </c>
+      <c r="H304" s="2">
+        <v>303</v>
+      </c>
       <c r="I304" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000002::bigint, 97000000000303::bigint);</v>
@@ -18404,6 +19320,9 @@
         <f>IF(EXACT($F305, ""), "", VLOOKUP($F305, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000002</v>
       </c>
+      <c r="H305" s="2">
+        <v>304</v>
+      </c>
       <c r="I305" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000002::bigint, 97000000000304::bigint);</v>
@@ -18429,6 +19348,9 @@
         <f>IF(EXACT($F306, ""), "", VLOOKUP($F306, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000002</v>
       </c>
+      <c r="H306" s="2">
+        <v>305</v>
+      </c>
       <c r="I306" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000002::bigint, 97000000000305::bigint);</v>
@@ -18454,6 +19376,9 @@
         <f>IF(EXACT($F307, ""), "", VLOOKUP($F307, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000002</v>
       </c>
+      <c r="H307" s="2">
+        <v>306</v>
+      </c>
       <c r="I307" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000002::bigint, 97000000000306::bigint);</v>
@@ -18479,6 +19404,9 @@
         <f>IF(EXACT($F308, ""), "", VLOOKUP($F308, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000002</v>
       </c>
+      <c r="H308" s="2">
+        <v>307</v>
+      </c>
       <c r="I308" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000002::bigint, 97000000000307::bigint);</v>
@@ -18504,6 +19432,9 @@
         <f>IF(EXACT($F309, ""), "", VLOOKUP($F309, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000002</v>
       </c>
+      <c r="H309" s="2">
+        <v>308</v>
+      </c>
       <c r="I309" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000002::bigint, 97000000000308::bigint);</v>
@@ -18529,6 +19460,9 @@
         <f>IF(EXACT($F310, ""), "", VLOOKUP($F310, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000002</v>
       </c>
+      <c r="H310" s="2">
+        <v>309</v>
+      </c>
       <c r="I310" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000002::bigint, 97000000000309::bigint);</v>
@@ -18554,6 +19488,9 @@
         <f>IF(EXACT($F311, ""), "", VLOOKUP($F311, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000005</v>
       </c>
+      <c r="H311" s="2">
+        <v>310</v>
+      </c>
       <c r="I311" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000005::bigint, 97000000000310::bigint);</v>
@@ -18579,6 +19516,9 @@
         <f>IF(EXACT($F312, ""), "", VLOOKUP($F312, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000005</v>
       </c>
+      <c r="H312" s="2">
+        <v>311</v>
+      </c>
       <c r="I312" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000005::bigint, 97000000000311::bigint);</v>
@@ -18604,6 +19544,9 @@
         <f>IF(EXACT($F313, ""), "", VLOOKUP($F313, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000005</v>
       </c>
+      <c r="H313" s="2">
+        <v>312</v>
+      </c>
       <c r="I313" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000005::bigint, 97000000000312::bigint);</v>
@@ -18629,6 +19572,9 @@
         <f>IF(EXACT($F314, ""), "", VLOOKUP($F314, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000005</v>
       </c>
+      <c r="H314" s="2">
+        <v>313</v>
+      </c>
       <c r="I314" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000005::bigint, 97000000000313::bigint);</v>
@@ -18654,6 +19600,9 @@
         <f>IF(EXACT($F315, ""), "", VLOOKUP($F315, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000005</v>
       </c>
+      <c r="H315" s="2">
+        <v>314</v>
+      </c>
       <c r="I315" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000005::bigint, 97000000000314::bigint);</v>
@@ -18679,6 +19628,9 @@
         <f>IF(EXACT($F316, ""), "", VLOOKUP($F316, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000005</v>
       </c>
+      <c r="H316" s="2">
+        <v>315</v>
+      </c>
       <c r="I316" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000005::bigint, 97000000000315::bigint);</v>
@@ -18704,6 +19656,9 @@
         <f>IF(EXACT($F317, ""), "", VLOOKUP($F317, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000005</v>
       </c>
+      <c r="H317" s="2">
+        <v>316</v>
+      </c>
       <c r="I317" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000005::bigint, 97000000000316::bigint);</v>
@@ -18729,6 +19684,9 @@
         <f>IF(EXACT($F318, ""), "", VLOOKUP($F318, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000005</v>
       </c>
+      <c r="H318" s="2">
+        <v>317</v>
+      </c>
       <c r="I318" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000005::bigint, 97000000000317::bigint);</v>
@@ -18754,6 +19712,9 @@
         <f>IF(EXACT($F319, ""), "", VLOOKUP($F319, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000005</v>
       </c>
+      <c r="H319" s="2">
+        <v>318</v>
+      </c>
       <c r="I319" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000005::bigint, 97000000000318::bigint);</v>
@@ -18779,6 +19740,9 @@
         <f>IF(EXACT($F320, ""), "", VLOOKUP($F320, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000005</v>
       </c>
+      <c r="H320" s="2">
+        <v>319</v>
+      </c>
       <c r="I320" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000005::bigint, 97000000000319::bigint);</v>
@@ -18804,6 +19768,9 @@
         <f>IF(EXACT($F321, ""), "", VLOOKUP($F321, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000005</v>
       </c>
+      <c r="H321" s="2">
+        <v>320</v>
+      </c>
       <c r="I321" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000005::bigint, 97000000000320::bigint);</v>
@@ -18829,6 +19796,9 @@
         <f>IF(EXACT($F322, ""), "", VLOOKUP($F322, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000005</v>
       </c>
+      <c r="H322" s="2">
+        <v>321</v>
+      </c>
       <c r="I322" s="9" t="str">
         <f t="shared" si="4"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000005::bigint, 97000000000321::bigint);</v>
@@ -18854,6 +19824,9 @@
         <f>IF(EXACT($F323, ""), "", VLOOKUP($F323, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000005</v>
       </c>
+      <c r="H323" s="2">
+        <v>322</v>
+      </c>
       <c r="I323" s="9" t="str">
         <f t="shared" ref="I323:I386" si="5">IF(EXACT(G323, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuGroupMember_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", G323, "::bigint, ", B323, "::bigint);"))</f>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000005::bigint, 97000000000322::bigint);</v>
@@ -18879,6 +19852,9 @@
         <f>IF(EXACT($F324, ""), "", VLOOKUP($F324, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000005</v>
       </c>
+      <c r="H324" s="2">
+        <v>323</v>
+      </c>
       <c r="I324" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000005::bigint, 97000000000323::bigint);</v>
@@ -18904,6 +19880,9 @@
         <f>IF(EXACT($F325, ""), "", VLOOKUP($F325, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000005</v>
       </c>
+      <c r="H325" s="2">
+        <v>324</v>
+      </c>
       <c r="I325" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000005::bigint, 97000000000324::bigint);</v>
@@ -18929,6 +19908,9 @@
         <f>IF(EXACT($F326, ""), "", VLOOKUP($F326, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000005</v>
       </c>
+      <c r="H326" s="2">
+        <v>325</v>
+      </c>
       <c r="I326" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000005::bigint, 97000000000325::bigint);</v>
@@ -18954,6 +19936,9 @@
         <f>IF(EXACT($F327, ""), "", VLOOKUP($F327, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000005</v>
       </c>
+      <c r="H327" s="2">
+        <v>326</v>
+      </c>
       <c r="I327" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000005::bigint, 97000000000326::bigint);</v>
@@ -18979,6 +19964,9 @@
         <f>IF(EXACT($F328, ""), "", VLOOKUP($F328, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000005</v>
       </c>
+      <c r="H328" s="2">
+        <v>327</v>
+      </c>
       <c r="I328" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000005::bigint, 97000000000327::bigint);</v>
@@ -19004,6 +19992,9 @@
         <f>IF(EXACT($F329, ""), "", VLOOKUP($F329, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000005</v>
       </c>
+      <c r="H329" s="2">
+        <v>328</v>
+      </c>
       <c r="I329" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000005::bigint, 97000000000328::bigint);</v>
@@ -19029,6 +20020,9 @@
         <f>IF(EXACT($F330, ""), "", VLOOKUP($F330, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000005</v>
       </c>
+      <c r="H330" s="2">
+        <v>329</v>
+      </c>
       <c r="I330" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000005::bigint, 97000000000329::bigint);</v>
@@ -19054,6 +20048,9 @@
         <f>IF(EXACT($F331, ""), "", VLOOKUP($F331, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000005</v>
       </c>
+      <c r="H331" s="2">
+        <v>330</v>
+      </c>
       <c r="I331" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000005::bigint, 97000000000330::bigint);</v>
@@ -19079,6 +20076,9 @@
         <f>IF(EXACT($F332, ""), "", VLOOKUP($F332, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000005</v>
       </c>
+      <c r="H332" s="2">
+        <v>331</v>
+      </c>
       <c r="I332" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000005::bigint, 97000000000331::bigint);</v>
@@ -19104,6 +20104,9 @@
         <f>IF(EXACT($F333, ""), "", VLOOKUP($F333, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000005</v>
       </c>
+      <c r="H333" s="2">
+        <v>332</v>
+      </c>
       <c r="I333" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000005::bigint, 97000000000332::bigint);</v>
@@ -19129,6 +20132,9 @@
         <f>IF(EXACT($F334, ""), "", VLOOKUP($F334, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000005</v>
       </c>
+      <c r="H334" s="2">
+        <v>333</v>
+      </c>
       <c r="I334" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000005::bigint, 97000000000333::bigint);</v>
@@ -19154,6 +20160,9 @@
         <f>IF(EXACT($F335, ""), "", VLOOKUP($F335, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H335" s="2">
+        <v>334</v>
+      </c>
       <c r="I335" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000334::bigint);</v>
@@ -19179,6 +20188,9 @@
         <f>IF(EXACT($F336, ""), "", VLOOKUP($F336, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H336" s="2">
+        <v>335</v>
+      </c>
       <c r="I336" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000335::bigint);</v>
@@ -19204,6 +20216,9 @@
         <f>IF(EXACT($F337, ""), "", VLOOKUP($F337, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H337" s="2">
+        <v>336</v>
+      </c>
       <c r="I337" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000336::bigint);</v>
@@ -19229,6 +20244,9 @@
         <f>IF(EXACT($F338, ""), "", VLOOKUP($F338, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H338" s="2">
+        <v>337</v>
+      </c>
       <c r="I338" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000337::bigint);</v>
@@ -19254,6 +20272,9 @@
         <f>IF(EXACT($F339, ""), "", VLOOKUP($F339, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H339" s="2">
+        <v>338</v>
+      </c>
       <c r="I339" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000338::bigint);</v>
@@ -19279,6 +20300,9 @@
         <f>IF(EXACT($F340, ""), "", VLOOKUP($F340, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H340" s="2">
+        <v>339</v>
+      </c>
       <c r="I340" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000339::bigint);</v>
@@ -19304,6 +20328,9 @@
         <f>IF(EXACT($F341, ""), "", VLOOKUP($F341, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H341" s="2">
+        <v>340</v>
+      </c>
       <c r="I341" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000340::bigint);</v>
@@ -19329,6 +20356,9 @@
         <f>IF(EXACT($F342, ""), "", VLOOKUP($F342, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H342" s="2">
+        <v>341</v>
+      </c>
       <c r="I342" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000341::bigint);</v>
@@ -19354,6 +20384,9 @@
         <f>IF(EXACT($F343, ""), "", VLOOKUP($F343, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H343" s="2">
+        <v>342</v>
+      </c>
       <c r="I343" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000342::bigint);</v>
@@ -19379,6 +20412,9 @@
         <f>IF(EXACT($F344, ""), "", VLOOKUP($F344, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H344" s="2">
+        <v>343</v>
+      </c>
       <c r="I344" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000343::bigint);</v>
@@ -19404,6 +20440,9 @@
         <f>IF(EXACT($F345, ""), "", VLOOKUP($F345, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H345" s="2">
+        <v>344</v>
+      </c>
       <c r="I345" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000344::bigint);</v>
@@ -19429,6 +20468,9 @@
         <f>IF(EXACT($F346, ""), "", VLOOKUP($F346, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H346" s="2">
+        <v>345</v>
+      </c>
       <c r="I346" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000345::bigint);</v>
@@ -19454,6 +20496,9 @@
         <f>IF(EXACT($F347, ""), "", VLOOKUP($F347, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H347" s="2">
+        <v>346</v>
+      </c>
       <c r="I347" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000346::bigint);</v>
@@ -19479,6 +20524,9 @@
         <f>IF(EXACT($F348, ""), "", VLOOKUP($F348, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H348" s="2">
+        <v>347</v>
+      </c>
       <c r="I348" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000347::bigint);</v>
@@ -19504,6 +20552,9 @@
         <f>IF(EXACT($F349, ""), "", VLOOKUP($F349, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H349" s="2">
+        <v>348</v>
+      </c>
       <c r="I349" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000348::bigint);</v>
@@ -19529,6 +20580,9 @@
         <f>IF(EXACT($F350, ""), "", VLOOKUP($F350, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H350" s="2">
+        <v>349</v>
+      </c>
       <c r="I350" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000349::bigint);</v>
@@ -19554,6 +20608,9 @@
         <f>IF(EXACT($F351, ""), "", VLOOKUP($F351, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H351" s="2">
+        <v>350</v>
+      </c>
       <c r="I351" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000350::bigint);</v>
@@ -19579,6 +20636,9 @@
         <f>IF(EXACT($F352, ""), "", VLOOKUP($F352, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H352" s="2">
+        <v>351</v>
+      </c>
       <c r="I352" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000351::bigint);</v>
@@ -19604,6 +20664,9 @@
         <f>IF(EXACT($F353, ""), "", VLOOKUP($F353, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H353" s="2">
+        <v>352</v>
+      </c>
       <c r="I353" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000352::bigint);</v>
@@ -19629,6 +20692,9 @@
         <f>IF(EXACT($F354, ""), "", VLOOKUP($F354, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H354" s="2">
+        <v>353</v>
+      </c>
       <c r="I354" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000353::bigint);</v>
@@ -19654,6 +20720,9 @@
         <f>IF(EXACT($F355, ""), "", VLOOKUP($F355, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H355" s="2">
+        <v>354</v>
+      </c>
       <c r="I355" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000354::bigint);</v>
@@ -19679,6 +20748,9 @@
         <f>IF(EXACT($F356, ""), "", VLOOKUP($F356, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H356" s="2">
+        <v>355</v>
+      </c>
       <c r="I356" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000355::bigint);</v>
@@ -19704,6 +20776,9 @@
         <f>IF(EXACT($F357, ""), "", VLOOKUP($F357, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H357" s="2">
+        <v>356</v>
+      </c>
       <c r="I357" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000356::bigint);</v>
@@ -19729,6 +20804,9 @@
         <f>IF(EXACT($F358, ""), "", VLOOKUP($F358, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H358" s="2">
+        <v>357</v>
+      </c>
       <c r="I358" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000357::bigint);</v>
@@ -19754,6 +20832,9 @@
         <f>IF(EXACT($F359, ""), "", VLOOKUP($F359, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H359" s="2">
+        <v>358</v>
+      </c>
       <c r="I359" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000358::bigint);</v>
@@ -19779,6 +20860,9 @@
         <f>IF(EXACT($F360, ""), "", VLOOKUP($F360, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H360" s="2">
+        <v>359</v>
+      </c>
       <c r="I360" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000359::bigint);</v>
@@ -19804,6 +20888,9 @@
         <f>IF(EXACT($F361, ""), "", VLOOKUP($F361, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H361" s="2">
+        <v>360</v>
+      </c>
       <c r="I361" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000360::bigint);</v>
@@ -19829,6 +20916,9 @@
         <f>IF(EXACT($F362, ""), "", VLOOKUP($F362, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H362" s="2">
+        <v>361</v>
+      </c>
       <c r="I362" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000361::bigint);</v>
@@ -19854,6 +20944,9 @@
         <f>IF(EXACT($F363, ""), "", VLOOKUP($F363, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H363" s="2">
+        <v>362</v>
+      </c>
       <c r="I363" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000362::bigint);</v>
@@ -19879,6 +20972,9 @@
         <f>IF(EXACT($F364, ""), "", VLOOKUP($F364, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H364" s="2">
+        <v>363</v>
+      </c>
       <c r="I364" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000363::bigint);</v>
@@ -19904,6 +21000,9 @@
         <f>IF(EXACT($F365, ""), "", VLOOKUP($F365, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H365" s="2">
+        <v>364</v>
+      </c>
       <c r="I365" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000364::bigint);</v>
@@ -19929,6 +21028,9 @@
         <f>IF(EXACT($F366, ""), "", VLOOKUP($F366, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H366" s="2">
+        <v>365</v>
+      </c>
       <c r="I366" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000365::bigint);</v>
@@ -19954,6 +21056,9 @@
         <f>IF(EXACT($F367, ""), "", VLOOKUP($F367, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H367" s="2">
+        <v>366</v>
+      </c>
       <c r="I367" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000366::bigint);</v>
@@ -19979,6 +21084,9 @@
         <f>IF(EXACT($F368, ""), "", VLOOKUP($F368, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H368" s="2">
+        <v>367</v>
+      </c>
       <c r="I368" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000367::bigint);</v>
@@ -20004,6 +21112,9 @@
         <f>IF(EXACT($F369, ""), "", VLOOKUP($F369, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H369" s="2">
+        <v>368</v>
+      </c>
       <c r="I369" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000368::bigint);</v>
@@ -20029,6 +21140,9 @@
         <f>IF(EXACT($F370, ""), "", VLOOKUP($F370, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H370" s="2">
+        <v>369</v>
+      </c>
       <c r="I370" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000369::bigint);</v>
@@ -20054,6 +21168,9 @@
         <f>IF(EXACT($F371, ""), "", VLOOKUP($F371, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H371" s="2">
+        <v>370</v>
+      </c>
       <c r="I371" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000370::bigint);</v>
@@ -20079,6 +21196,9 @@
         <f>IF(EXACT($F372, ""), "", VLOOKUP($F372, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H372" s="2">
+        <v>371</v>
+      </c>
       <c r="I372" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000371::bigint);</v>
@@ -20104,6 +21224,9 @@
         <f>IF(EXACT($F373, ""), "", VLOOKUP($F373, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H373" s="2">
+        <v>372</v>
+      </c>
       <c r="I373" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000372::bigint);</v>
@@ -20129,6 +21252,9 @@
         <f>IF(EXACT($F374, ""), "", VLOOKUP($F374, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H374" s="2">
+        <v>373</v>
+      </c>
       <c r="I374" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000373::bigint);</v>
@@ -20154,6 +21280,9 @@
         <f>IF(EXACT($F375, ""), "", VLOOKUP($F375, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H375" s="2">
+        <v>374</v>
+      </c>
       <c r="I375" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000374::bigint);</v>
@@ -20179,6 +21308,9 @@
         <f>IF(EXACT($F376, ""), "", VLOOKUP($F376, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H376" s="2">
+        <v>375</v>
+      </c>
       <c r="I376" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000375::bigint);</v>
@@ -20204,6 +21336,9 @@
         <f>IF(EXACT($F377, ""), "", VLOOKUP($F377, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H377" s="2">
+        <v>376</v>
+      </c>
       <c r="I377" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000376::bigint);</v>
@@ -20229,6 +21364,9 @@
         <f>IF(EXACT($F378, ""), "", VLOOKUP($F378, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H378" s="2">
+        <v>377</v>
+      </c>
       <c r="I378" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000377::bigint);</v>
@@ -20254,6 +21392,9 @@
         <f>IF(EXACT($F379, ""), "", VLOOKUP($F379, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H379" s="2">
+        <v>378</v>
+      </c>
       <c r="I379" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000378::bigint);</v>
@@ -20279,6 +21420,9 @@
         <f>IF(EXACT($F380, ""), "", VLOOKUP($F380, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H380" s="2">
+        <v>379</v>
+      </c>
       <c r="I380" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000379::bigint);</v>
@@ -20304,6 +21448,9 @@
         <f>IF(EXACT($F381, ""), "", VLOOKUP($F381, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H381" s="2">
+        <v>380</v>
+      </c>
       <c r="I381" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000380::bigint);</v>
@@ -20329,6 +21476,9 @@
         <f>IF(EXACT($F382, ""), "", VLOOKUP($F382, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H382" s="2">
+        <v>381</v>
+      </c>
       <c r="I382" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000381::bigint);</v>
@@ -20354,6 +21504,9 @@
         <f>IF(EXACT($F383, ""), "", VLOOKUP($F383, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H383" s="2">
+        <v>382</v>
+      </c>
       <c r="I383" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000382::bigint);</v>
@@ -20379,6 +21532,9 @@
         <f>IF(EXACT($F384, ""), "", VLOOKUP($F384, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H384" s="2">
+        <v>383</v>
+      </c>
       <c r="I384" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000383::bigint);</v>
@@ -20404,6 +21560,9 @@
         <f>IF(EXACT($F385, ""), "", VLOOKUP($F385, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H385" s="2">
+        <v>384</v>
+      </c>
       <c r="I385" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000384::bigint);</v>
@@ -20429,6 +21588,9 @@
         <f>IF(EXACT($F386, ""), "", VLOOKUP($F386, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H386" s="2">
+        <v>385</v>
+      </c>
       <c r="I386" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000385::bigint);</v>
@@ -20454,6 +21616,9 @@
         <f>IF(EXACT($F387, ""), "", VLOOKUP($F387, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H387" s="2">
+        <v>386</v>
+      </c>
       <c r="I387" s="9" t="str">
         <f t="shared" ref="I387:I450" si="6">IF(EXACT(G387, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuGroupMember_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", G387, "::bigint, ", B387, "::bigint);"))</f>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000386::bigint);</v>
@@ -20479,6 +21644,9 @@
         <f>IF(EXACT($F388, ""), "", VLOOKUP($F388, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H388" s="2">
+        <v>387</v>
+      </c>
       <c r="I388" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000387::bigint);</v>
@@ -20504,6 +21672,9 @@
         <f>IF(EXACT($F389, ""), "", VLOOKUP($F389, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H389" s="2">
+        <v>388</v>
+      </c>
       <c r="I389" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000388::bigint);</v>
@@ -20529,6 +21700,9 @@
         <f>IF(EXACT($F390, ""), "", VLOOKUP($F390, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H390" s="2">
+        <v>389</v>
+      </c>
       <c r="I390" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000389::bigint);</v>
@@ -20554,6 +21728,9 @@
         <f>IF(EXACT($F391, ""), "", VLOOKUP($F391, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H391" s="2">
+        <v>390</v>
+      </c>
       <c r="I391" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000390::bigint);</v>
@@ -20579,6 +21756,9 @@
         <f>IF(EXACT($F392, ""), "", VLOOKUP($F392, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H392" s="2">
+        <v>391</v>
+      </c>
       <c r="I392" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000391::bigint);</v>
@@ -20604,6 +21784,9 @@
         <f>IF(EXACT($F393, ""), "", VLOOKUP($F393, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H393" s="2">
+        <v>392</v>
+      </c>
       <c r="I393" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000392::bigint);</v>
@@ -20629,6 +21812,9 @@
         <f>IF(EXACT($F394, ""), "", VLOOKUP($F394, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H394" s="2">
+        <v>393</v>
+      </c>
       <c r="I394" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000393::bigint);</v>
@@ -20641,11 +21827,11 @@
       </c>
       <c r="C395" s="7" t="str">
         <f>VLOOKUP($B395, [1]MainNEW!$E$2:$G$904, 2, FALSE)</f>
-        <v>Module.Finance.Data.SalesProformaInvoice.Transaction</v>
+        <v>Module.Finance.Data.SalesInvoiceRequisition.Transaction</v>
       </c>
       <c r="D395" s="8" t="str">
         <f>VLOOKUP($B395, [1]MainNEW!$E$2:$G$904, 3, FALSE)</f>
-        <v>Sales Proforma Invoice</v>
+        <v>Sales Invoice Requisition</v>
       </c>
       <c r="F395" s="10" t="s">
         <v>2</v>
@@ -20653,6 +21839,9 @@
       <c r="G395" s="6">
         <f>IF(EXACT($F395, ""), "", VLOOKUP($F395, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
+      </c>
+      <c r="H395" s="2">
+        <v>394</v>
       </c>
       <c r="I395" s="9" t="str">
         <f t="shared" si="6"/>
@@ -20666,11 +21855,11 @@
       </c>
       <c r="C396" s="7" t="str">
         <f>VLOOKUP($B396, [1]MainNEW!$E$2:$G$904, 2, FALSE)</f>
-        <v>Module.Finance.Data.SalesProformaInvoice.Report.Form</v>
+        <v>Module.Finance.Data.SalesInvoiceRequisition.Report.Form</v>
       </c>
       <c r="D396" s="8" t="str">
         <f>VLOOKUP($B396, [1]MainNEW!$E$2:$G$904, 3, FALSE)</f>
-        <v>Sales Proforma Invoice Form</v>
+        <v>Sales Invoice Requisition Form</v>
       </c>
       <c r="F396" s="10" t="s">
         <v>2</v>
@@ -20678,6 +21867,9 @@
       <c r="G396" s="6">
         <f>IF(EXACT($F396, ""), "", VLOOKUP($F396, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
+      </c>
+      <c r="H396" s="2">
+        <v>395</v>
       </c>
       <c r="I396" s="9" t="str">
         <f t="shared" si="6"/>
@@ -20691,11 +21883,11 @@
       </c>
       <c r="C397" s="7" t="str">
         <f>VLOOKUP($B397, [1]MainNEW!$E$2:$G$904, 2, FALSE)</f>
-        <v>Module.Finance.Data.SalesProformaInvoice.Report.DataList</v>
+        <v>Module.Finance.Data.SalesInvoiceRequisition.Report.DataList</v>
       </c>
       <c r="D397" s="8" t="str">
         <f>VLOOKUP($B397, [1]MainNEW!$E$2:$G$904, 3, FALSE)</f>
-        <v>Sales Proforma Invoice Data List</v>
+        <v>Sales Invoice Requisition Data List</v>
       </c>
       <c r="F397" s="10" t="s">
         <v>2</v>
@@ -20703,6 +21895,9 @@
       <c r="G397" s="6">
         <f>IF(EXACT($F397, ""), "", VLOOKUP($F397, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
+      </c>
+      <c r="H397" s="11">
+        <v>396</v>
       </c>
       <c r="I397" s="9" t="str">
         <f t="shared" si="6"/>
@@ -20716,11 +21911,11 @@
       </c>
       <c r="C398" s="7" t="str">
         <f>VLOOKUP($B398, [1]MainNEW!$E$2:$G$904, 2, FALSE)</f>
-        <v>Module.Finance.Data.SalesProformaInvoice.Report.Resume</v>
+        <v>Module.Finance.Data.SalesInvoiceRequisition.Report.Resume</v>
       </c>
       <c r="D398" s="8" t="str">
         <f>VLOOKUP($B398, [1]MainNEW!$E$2:$G$904, 3, FALSE)</f>
-        <v>Sales Proforma Invoice Resume</v>
+        <v>Sales Invoice Requisition Resume</v>
       </c>
       <c r="F398" s="10" t="s">
         <v>2</v>
@@ -20728,6 +21923,9 @@
       <c r="G398" s="6">
         <f>IF(EXACT($F398, ""), "", VLOOKUP($F398, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
+      </c>
+      <c r="H398" s="2">
+        <v>397</v>
       </c>
       <c r="I398" s="9" t="str">
         <f t="shared" si="6"/>
@@ -20741,11 +21939,11 @@
       </c>
       <c r="C399" s="7" t="str">
         <f>VLOOKUP($B399, [1]MainNEW!$E$2:$G$904, 2, FALSE)</f>
-        <v>Module.Finance.Data.SalesInvoice.Transaction</v>
+        <v>Module.Finance.Data.SalesProformaInvoice.Transaction</v>
       </c>
       <c r="D399" s="8" t="str">
         <f>VLOOKUP($B399, [1]MainNEW!$E$2:$G$904, 3, FALSE)</f>
-        <v>Sales Invoice</v>
+        <v>Sales Proforma Invoice</v>
       </c>
       <c r="F399" s="10" t="s">
         <v>2</v>
@@ -20753,6 +21951,9 @@
       <c r="G399" s="6">
         <f>IF(EXACT($F399, ""), "", VLOOKUP($F399, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
+      </c>
+      <c r="H399" s="2">
+        <v>398</v>
       </c>
       <c r="I399" s="9" t="str">
         <f t="shared" si="6"/>
@@ -20766,11 +21967,11 @@
       </c>
       <c r="C400" s="7" t="str">
         <f>VLOOKUP($B400, [1]MainNEW!$E$2:$G$904, 2, FALSE)</f>
-        <v>Module.Finance.Data.SalesInvoice.Report.Form</v>
+        <v>Module.Finance.Data.SalesProformaInvoice.Report.Form</v>
       </c>
       <c r="D400" s="8" t="str">
         <f>VLOOKUP($B400, [1]MainNEW!$E$2:$G$904, 3, FALSE)</f>
-        <v>Sales Invoice Form</v>
+        <v>Sales Proforma Invoice Form</v>
       </c>
       <c r="F400" s="10" t="s">
         <v>2</v>
@@ -20778,6 +21979,9 @@
       <c r="G400" s="6">
         <f>IF(EXACT($F400, ""), "", VLOOKUP($F400, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
+      </c>
+      <c r="H400" s="2">
+        <v>399</v>
       </c>
       <c r="I400" s="9" t="str">
         <f t="shared" si="6"/>
@@ -20791,11 +21995,11 @@
       </c>
       <c r="C401" s="7" t="str">
         <f>VLOOKUP($B401, [1]MainNEW!$E$2:$G$904, 2, FALSE)</f>
-        <v>Module.Finance.Data.SalesInvoice.Report.DataList</v>
+        <v>Module.Finance.Data.SalesProformaInvoice.Report.DataList</v>
       </c>
       <c r="D401" s="8" t="str">
         <f>VLOOKUP($B401, [1]MainNEW!$E$2:$G$904, 3, FALSE)</f>
-        <v>Sales Invoice Data List</v>
+        <v>Sales Proforma Invoice Data List</v>
       </c>
       <c r="F401" s="10" t="s">
         <v>2</v>
@@ -20803,6 +22007,9 @@
       <c r="G401" s="6">
         <f>IF(EXACT($F401, ""), "", VLOOKUP($F401, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
+      </c>
+      <c r="H401" s="2">
+        <v>400</v>
       </c>
       <c r="I401" s="9" t="str">
         <f t="shared" si="6"/>
@@ -20816,11 +22023,11 @@
       </c>
       <c r="C402" s="7" t="str">
         <f>VLOOKUP($B402, [1]MainNEW!$E$2:$G$904, 2, FALSE)</f>
-        <v>Module.Finance.Data.SalesInvoice.Report.Resume</v>
+        <v>Module.Finance.Data.SalesProformaInvoice.Report.Resume</v>
       </c>
       <c r="D402" s="8" t="str">
         <f>VLOOKUP($B402, [1]MainNEW!$E$2:$G$904, 3, FALSE)</f>
-        <v>Sales Invoice Resume</v>
+        <v>Sales Proforma Invoice Resume</v>
       </c>
       <c r="F402" s="10" t="s">
         <v>2</v>
@@ -20828,6 +22035,9 @@
       <c r="G402" s="6">
         <f>IF(EXACT($F402, ""), "", VLOOKUP($F402, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
+      </c>
+      <c r="H402" s="2">
+        <v>401</v>
       </c>
       <c r="I402" s="9" t="str">
         <f t="shared" si="6"/>
@@ -20854,6 +22064,9 @@
         <f>IF(EXACT($F403, ""), "", VLOOKUP($F403, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H403" s="2">
+        <v>402</v>
+      </c>
       <c r="I403" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000402::bigint);</v>
@@ -20879,6 +22092,9 @@
         <f>IF(EXACT($F404, ""), "", VLOOKUP($F404, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H404" s="2">
+        <v>403</v>
+      </c>
       <c r="I404" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000403::bigint);</v>
@@ -20904,6 +22120,9 @@
         <f>IF(EXACT($F405, ""), "", VLOOKUP($F405, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H405" s="11">
+        <v>404</v>
+      </c>
       <c r="I405" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000404::bigint);</v>
@@ -20929,6 +22148,9 @@
         <f>IF(EXACT($F406, ""), "", VLOOKUP($F406, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H406" s="2">
+        <v>405</v>
+      </c>
       <c r="I406" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000405::bigint);</v>
@@ -20954,6 +22176,9 @@
         <f>IF(EXACT($F407, ""), "", VLOOKUP($F407, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H407" s="2">
+        <v>406</v>
+      </c>
       <c r="I407" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000406::bigint);</v>
@@ -20979,6 +22204,9 @@
         <f>IF(EXACT($F408, ""), "", VLOOKUP($F408, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H408" s="2">
+        <v>407</v>
+      </c>
       <c r="I408" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000407::bigint);</v>
@@ -21004,6 +22232,9 @@
         <f>IF(EXACT($F409, ""), "", VLOOKUP($F409, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H409" s="2">
+        <v>408</v>
+      </c>
       <c r="I409" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000408::bigint);</v>
@@ -21029,6 +22260,9 @@
         <f>IF(EXACT($F410, ""), "", VLOOKUP($F410, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H410" s="2">
+        <v>409</v>
+      </c>
       <c r="I410" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000409::bigint);</v>
@@ -21054,6 +22288,9 @@
         <f>IF(EXACT($F411, ""), "", VLOOKUP($F411, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H411" s="2">
+        <v>410</v>
+      </c>
       <c r="I411" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000410::bigint);</v>
@@ -21079,6 +22316,9 @@
         <f>IF(EXACT($F412, ""), "", VLOOKUP($F412, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H412" s="2">
+        <v>411</v>
+      </c>
       <c r="I412" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000411::bigint);</v>
@@ -21104,6 +22344,9 @@
         <f>IF(EXACT($F413, ""), "", VLOOKUP($F413, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H413" s="2">
+        <v>412</v>
+      </c>
       <c r="I413" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000412::bigint);</v>
@@ -21129,6 +22372,9 @@
         <f>IF(EXACT($F414, ""), "", VLOOKUP($F414, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H414" s="2">
+        <v>413</v>
+      </c>
       <c r="I414" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000413::bigint);</v>
@@ -21154,6 +22400,9 @@
         <f>IF(EXACT($F415, ""), "", VLOOKUP($F415, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H415" s="2">
+        <v>414</v>
+      </c>
       <c r="I415" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000414::bigint);</v>
@@ -21179,6 +22428,9 @@
         <f>IF(EXACT($F416, ""), "", VLOOKUP($F416, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H416" s="2">
+        <v>415</v>
+      </c>
       <c r="I416" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000415::bigint);</v>
@@ -21204,6 +22456,9 @@
         <f>IF(EXACT($F417, ""), "", VLOOKUP($F417, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H417" s="2">
+        <v>416</v>
+      </c>
       <c r="I417" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000416::bigint);</v>
@@ -21229,6 +22484,9 @@
         <f>IF(EXACT($F418, ""), "", VLOOKUP($F418, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H418" s="2">
+        <v>417</v>
+      </c>
       <c r="I418" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000417::bigint);</v>
@@ -21254,6 +22512,9 @@
         <f>IF(EXACT($F419, ""), "", VLOOKUP($F419, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H419" s="2">
+        <v>418</v>
+      </c>
       <c r="I419" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000418::bigint);</v>
@@ -21279,6 +22540,9 @@
         <f>IF(EXACT($F420, ""), "", VLOOKUP($F420, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H420" s="2">
+        <v>419</v>
+      </c>
       <c r="I420" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000419::bigint);</v>
@@ -21304,6 +22568,9 @@
         <f>IF(EXACT($F421, ""), "", VLOOKUP($F421, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H421" s="2">
+        <v>420</v>
+      </c>
       <c r="I421" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000420::bigint);</v>
@@ -21329,6 +22596,9 @@
         <f>IF(EXACT($F422, ""), "", VLOOKUP($F422, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H422" s="2">
+        <v>421</v>
+      </c>
       <c r="I422" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000421::bigint);</v>
@@ -21354,6 +22624,9 @@
         <f>IF(EXACT($F423, ""), "", VLOOKUP($F423, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H423" s="2">
+        <v>422</v>
+      </c>
       <c r="I423" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000422::bigint);</v>
@@ -21379,6 +22652,9 @@
         <f>IF(EXACT($F424, ""), "", VLOOKUP($F424, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H424" s="2">
+        <v>423</v>
+      </c>
       <c r="I424" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000423::bigint);</v>
@@ -21404,6 +22680,9 @@
         <f>IF(EXACT($F425, ""), "", VLOOKUP($F425, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H425" s="2">
+        <v>424</v>
+      </c>
       <c r="I425" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000424::bigint);</v>
@@ -21429,6 +22708,9 @@
         <f>IF(EXACT($F426, ""), "", VLOOKUP($F426, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H426" s="2">
+        <v>425</v>
+      </c>
       <c r="I426" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000425::bigint);</v>
@@ -21454,6 +22736,9 @@
         <f>IF(EXACT($F427, ""), "", VLOOKUP($F427, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H427" s="2">
+        <v>426</v>
+      </c>
       <c r="I427" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000426::bigint);</v>
@@ -21479,6 +22764,9 @@
         <f>IF(EXACT($F428, ""), "", VLOOKUP($F428, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H428" s="2">
+        <v>427</v>
+      </c>
       <c r="I428" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000427::bigint);</v>
@@ -21504,6 +22792,9 @@
         <f>IF(EXACT($F429, ""), "", VLOOKUP($F429, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H429" s="2">
+        <v>428</v>
+      </c>
       <c r="I429" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000428::bigint);</v>
@@ -21529,6 +22820,9 @@
         <f>IF(EXACT($F430, ""), "", VLOOKUP($F430, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H430" s="2">
+        <v>429</v>
+      </c>
       <c r="I430" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000429::bigint);</v>
@@ -21554,6 +22848,9 @@
         <f>IF(EXACT($F431, ""), "", VLOOKUP($F431, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H431" s="2">
+        <v>430</v>
+      </c>
       <c r="I431" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000430::bigint);</v>
@@ -21579,6 +22876,9 @@
         <f>IF(EXACT($F432, ""), "", VLOOKUP($F432, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H432" s="2">
+        <v>431</v>
+      </c>
       <c r="I432" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000431::bigint);</v>
@@ -21604,6 +22904,9 @@
         <f>IF(EXACT($F433, ""), "", VLOOKUP($F433, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H433" s="2">
+        <v>432</v>
+      </c>
       <c r="I433" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000432::bigint);</v>
@@ -21629,6 +22932,9 @@
         <f>IF(EXACT($F434, ""), "", VLOOKUP($F434, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H434" s="2">
+        <v>433</v>
+      </c>
       <c r="I434" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000433::bigint);</v>
@@ -21654,6 +22960,9 @@
         <f>IF(EXACT($F435, ""), "", VLOOKUP($F435, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H435" s="2">
+        <v>434</v>
+      </c>
       <c r="I435" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000434::bigint);</v>
@@ -21679,6 +22988,9 @@
         <f>IF(EXACT($F436, ""), "", VLOOKUP($F436, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H436" s="2">
+        <v>435</v>
+      </c>
       <c r="I436" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000435::bigint);</v>
@@ -21704,6 +23016,9 @@
         <f>IF(EXACT($F437, ""), "", VLOOKUP($F437, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H437" s="2">
+        <v>436</v>
+      </c>
       <c r="I437" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000436::bigint);</v>
@@ -21729,6 +23044,9 @@
         <f>IF(EXACT($F438, ""), "", VLOOKUP($F438, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H438" s="2">
+        <v>437</v>
+      </c>
       <c r="I438" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000437::bigint);</v>
@@ -21754,6 +23072,9 @@
         <f>IF(EXACT($F439, ""), "", VLOOKUP($F439, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H439" s="2">
+        <v>438</v>
+      </c>
       <c r="I439" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000438::bigint);</v>
@@ -21779,6 +23100,9 @@
         <f>IF(EXACT($F440, ""), "", VLOOKUP($F440, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H440" s="2">
+        <v>439</v>
+      </c>
       <c r="I440" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000439::bigint);</v>
@@ -21804,6 +23128,9 @@
         <f>IF(EXACT($F441, ""), "", VLOOKUP($F441, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H441" s="2">
+        <v>440</v>
+      </c>
       <c r="I441" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000440::bigint);</v>
@@ -21829,6 +23156,9 @@
         <f>IF(EXACT($F442, ""), "", VLOOKUP($F442, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H442" s="2">
+        <v>441</v>
+      </c>
       <c r="I442" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000441::bigint);</v>
@@ -21854,6 +23184,9 @@
         <f>IF(EXACT($F443, ""), "", VLOOKUP($F443, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H443" s="2">
+        <v>442</v>
+      </c>
       <c r="I443" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000442::bigint);</v>
@@ -21879,6 +23212,9 @@
         <f>IF(EXACT($F444, ""), "", VLOOKUP($F444, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H444" s="2">
+        <v>443</v>
+      </c>
       <c r="I444" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000443::bigint);</v>
@@ -21904,6 +23240,9 @@
         <f>IF(EXACT($F445, ""), "", VLOOKUP($F445, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H445" s="2">
+        <v>444</v>
+      </c>
       <c r="I445" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000444::bigint);</v>
@@ -21929,6 +23268,9 @@
         <f>IF(EXACT($F446, ""), "", VLOOKUP($F446, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H446" s="2">
+        <v>445</v>
+      </c>
       <c r="I446" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000445::bigint);</v>
@@ -21954,6 +23296,9 @@
         <f>IF(EXACT($F447, ""), "", VLOOKUP($F447, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H447" s="2">
+        <v>446</v>
+      </c>
       <c r="I447" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000446::bigint);</v>
@@ -21979,6 +23324,9 @@
         <f>IF(EXACT($F448, ""), "", VLOOKUP($F448, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H448" s="2">
+        <v>447</v>
+      </c>
       <c r="I448" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000447::bigint);</v>
@@ -22004,6 +23352,9 @@
         <f>IF(EXACT($F449, ""), "", VLOOKUP($F449, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H449" s="2">
+        <v>448</v>
+      </c>
       <c r="I449" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000448::bigint);</v>
@@ -22029,6 +23380,9 @@
         <f>IF(EXACT($F450, ""), "", VLOOKUP($F450, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H450" s="2">
+        <v>449</v>
+      </c>
       <c r="I450" s="9" t="str">
         <f t="shared" si="6"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000449::bigint);</v>
@@ -22054,6 +23408,9 @@
         <f>IF(EXACT($F451, ""), "", VLOOKUP($F451, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H451" s="2">
+        <v>450</v>
+      </c>
       <c r="I451" s="9" t="str">
         <f t="shared" ref="I451:I514" si="7">IF(EXACT(G451, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuGroupMember_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", G451, "::bigint, ", B451, "::bigint);"))</f>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000450::bigint);</v>
@@ -22079,6 +23436,9 @@
         <f>IF(EXACT($F452, ""), "", VLOOKUP($F452, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H452" s="2">
+        <v>451</v>
+      </c>
       <c r="I452" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000451::bigint);</v>
@@ -22104,6 +23464,9 @@
         <f>IF(EXACT($F453, ""), "", VLOOKUP($F453, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H453" s="2">
+        <v>452</v>
+      </c>
       <c r="I453" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000452::bigint);</v>
@@ -22129,6 +23492,9 @@
         <f>IF(EXACT($F454, ""), "", VLOOKUP($F454, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H454" s="2">
+        <v>453</v>
+      </c>
       <c r="I454" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000453::bigint);</v>
@@ -22154,6 +23520,9 @@
         <f>IF(EXACT($F455, ""), "", VLOOKUP($F455, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H455" s="2">
+        <v>454</v>
+      </c>
       <c r="I455" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000454::bigint);</v>
@@ -22179,6 +23548,9 @@
         <f>IF(EXACT($F456, ""), "", VLOOKUP($F456, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H456" s="2">
+        <v>455</v>
+      </c>
       <c r="I456" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000455::bigint);</v>
@@ -22204,6 +23576,9 @@
         <f>IF(EXACT($F457, ""), "", VLOOKUP($F457, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H457" s="2">
+        <v>456</v>
+      </c>
       <c r="I457" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000456::bigint);</v>
@@ -22229,6 +23604,9 @@
         <f>IF(EXACT($F458, ""), "", VLOOKUP($F458, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H458" s="2">
+        <v>457</v>
+      </c>
       <c r="I458" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000457::bigint);</v>
@@ -22254,6 +23632,9 @@
         <f>IF(EXACT($F459, ""), "", VLOOKUP($F459, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H459" s="2">
+        <v>458</v>
+      </c>
       <c r="I459" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000458::bigint);</v>
@@ -22279,6 +23660,9 @@
         <f>IF(EXACT($F460, ""), "", VLOOKUP($F460, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H460" s="2">
+        <v>459</v>
+      </c>
       <c r="I460" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000459::bigint);</v>
@@ -22304,6 +23688,9 @@
         <f>IF(EXACT($F461, ""), "", VLOOKUP($F461, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H461" s="2">
+        <v>460</v>
+      </c>
       <c r="I461" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000460::bigint);</v>
@@ -22329,6 +23716,9 @@
         <f>IF(EXACT($F462, ""), "", VLOOKUP($F462, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H462" s="2">
+        <v>461</v>
+      </c>
       <c r="I462" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000461::bigint);</v>
@@ -22354,6 +23744,9 @@
         <f>IF(EXACT($F463, ""), "", VLOOKUP($F463, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H463" s="2">
+        <v>462</v>
+      </c>
       <c r="I463" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000462::bigint);</v>
@@ -22379,6 +23772,9 @@
         <f>IF(EXACT($F464, ""), "", VLOOKUP($F464, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H464" s="2">
+        <v>463</v>
+      </c>
       <c r="I464" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000463::bigint);</v>
@@ -22404,6 +23800,9 @@
         <f>IF(EXACT($F465, ""), "", VLOOKUP($F465, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H465" s="2">
+        <v>464</v>
+      </c>
       <c r="I465" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000464::bigint);</v>
@@ -22429,6 +23828,9 @@
         <f>IF(EXACT($F466, ""), "", VLOOKUP($F466, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H466" s="2">
+        <v>465</v>
+      </c>
       <c r="I466" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000465::bigint);</v>
@@ -22454,6 +23856,9 @@
         <f>IF(EXACT($F467, ""), "", VLOOKUP($F467, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H467" s="2">
+        <v>466</v>
+      </c>
       <c r="I467" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000466::bigint);</v>
@@ -22479,6 +23884,9 @@
         <f>IF(EXACT($F468, ""), "", VLOOKUP($F468, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H468" s="2">
+        <v>467</v>
+      </c>
       <c r="I468" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000467::bigint);</v>
@@ -22504,6 +23912,9 @@
         <f>IF(EXACT($F469, ""), "", VLOOKUP($F469, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H469" s="2">
+        <v>468</v>
+      </c>
       <c r="I469" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000468::bigint);</v>
@@ -22529,6 +23940,9 @@
         <f>IF(EXACT($F470, ""), "", VLOOKUP($F470, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H470" s="2">
+        <v>469</v>
+      </c>
       <c r="I470" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000469::bigint);</v>
@@ -22554,6 +23968,9 @@
         <f>IF(EXACT($F471, ""), "", VLOOKUP($F471, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H471" s="2">
+        <v>470</v>
+      </c>
       <c r="I471" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000470::bigint);</v>
@@ -22579,6 +23996,9 @@
         <f>IF(EXACT($F472, ""), "", VLOOKUP($F472, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H472" s="2">
+        <v>471</v>
+      </c>
       <c r="I472" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000471::bigint);</v>
@@ -22604,6 +24024,9 @@
         <f>IF(EXACT($F473, ""), "", VLOOKUP($F473, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H473" s="2">
+        <v>472</v>
+      </c>
       <c r="I473" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000472::bigint);</v>
@@ -22629,6 +24052,9 @@
         <f>IF(EXACT($F474, ""), "", VLOOKUP($F474, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H474" s="2">
+        <v>473</v>
+      </c>
       <c r="I474" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000473::bigint);</v>
@@ -22654,6 +24080,9 @@
         <f>IF(EXACT($F475, ""), "", VLOOKUP($F475, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H475" s="2">
+        <v>474</v>
+      </c>
       <c r="I475" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000474::bigint);</v>
@@ -22679,6 +24108,9 @@
         <f>IF(EXACT($F476, ""), "", VLOOKUP($F476, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H476" s="2">
+        <v>475</v>
+      </c>
       <c r="I476" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000475::bigint);</v>
@@ -22704,6 +24136,9 @@
         <f>IF(EXACT($F477, ""), "", VLOOKUP($F477, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H477" s="2">
+        <v>476</v>
+      </c>
       <c r="I477" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000476::bigint);</v>
@@ -22729,6 +24164,9 @@
         <f>IF(EXACT($F478, ""), "", VLOOKUP($F478, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H478" s="2">
+        <v>477</v>
+      </c>
       <c r="I478" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000477::bigint);</v>
@@ -22754,6 +24192,9 @@
         <f>IF(EXACT($F479, ""), "", VLOOKUP($F479, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H479" s="2">
+        <v>478</v>
+      </c>
       <c r="I479" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000478::bigint);</v>
@@ -22779,6 +24220,9 @@
         <f>IF(EXACT($F480, ""), "", VLOOKUP($F480, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H480" s="2">
+        <v>479</v>
+      </c>
       <c r="I480" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000479::bigint);</v>
@@ -22804,6 +24248,9 @@
         <f>IF(EXACT($F481, ""), "", VLOOKUP($F481, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H481" s="2">
+        <v>480</v>
+      </c>
       <c r="I481" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000480::bigint);</v>
@@ -22829,6 +24276,9 @@
         <f>IF(EXACT($F482, ""), "", VLOOKUP($F482, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H482" s="2">
+        <v>481</v>
+      </c>
       <c r="I482" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000481::bigint);</v>
@@ -22854,6 +24304,9 @@
         <f>IF(EXACT($F483, ""), "", VLOOKUP($F483, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H483" s="2">
+        <v>482</v>
+      </c>
       <c r="I483" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000482::bigint);</v>
@@ -22879,6 +24332,9 @@
         <f>IF(EXACT($F484, ""), "", VLOOKUP($F484, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H484" s="2">
+        <v>483</v>
+      </c>
       <c r="I484" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000483::bigint);</v>
@@ -22904,6 +24360,9 @@
         <f>IF(EXACT($F485, ""), "", VLOOKUP($F485, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H485" s="2">
+        <v>484</v>
+      </c>
       <c r="I485" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000484::bigint);</v>
@@ -22929,6 +24388,9 @@
         <f>IF(EXACT($F486, ""), "", VLOOKUP($F486, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H486" s="2">
+        <v>485</v>
+      </c>
       <c r="I486" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000485::bigint);</v>
@@ -22954,6 +24416,9 @@
         <f>IF(EXACT($F487, ""), "", VLOOKUP($F487, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H487" s="2">
+        <v>486</v>
+      </c>
       <c r="I487" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000486::bigint);</v>
@@ -22979,6 +24444,9 @@
         <f>IF(EXACT($F488, ""), "", VLOOKUP($F488, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H488" s="2">
+        <v>487</v>
+      </c>
       <c r="I488" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000487::bigint);</v>
@@ -23004,6 +24472,9 @@
         <f>IF(EXACT($F489, ""), "", VLOOKUP($F489, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H489" s="2">
+        <v>488</v>
+      </c>
       <c r="I489" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000488::bigint);</v>
@@ -23029,6 +24500,9 @@
         <f>IF(EXACT($F490, ""), "", VLOOKUP($F490, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H490" s="2">
+        <v>489</v>
+      </c>
       <c r="I490" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000489::bigint);</v>
@@ -23054,6 +24528,9 @@
         <f>IF(EXACT($F491, ""), "", VLOOKUP($F491, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H491" s="2">
+        <v>490</v>
+      </c>
       <c r="I491" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000490::bigint);</v>
@@ -23079,6 +24556,9 @@
         <f>IF(EXACT($F492, ""), "", VLOOKUP($F492, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H492" s="2">
+        <v>491</v>
+      </c>
       <c r="I492" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000491::bigint);</v>
@@ -23104,6 +24584,9 @@
         <f>IF(EXACT($F493, ""), "", VLOOKUP($F493, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H493" s="2">
+        <v>492</v>
+      </c>
       <c r="I493" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000492::bigint);</v>
@@ -23129,6 +24612,9 @@
         <f>IF(EXACT($F494, ""), "", VLOOKUP($F494, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H494" s="2">
+        <v>493</v>
+      </c>
       <c r="I494" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000493::bigint);</v>
@@ -23154,6 +24640,9 @@
         <f>IF(EXACT($F495, ""), "", VLOOKUP($F495, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H495" s="2">
+        <v>494</v>
+      </c>
       <c r="I495" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000494::bigint);</v>
@@ -23179,6 +24668,9 @@
         <f>IF(EXACT($F496, ""), "", VLOOKUP($F496, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H496" s="2">
+        <v>495</v>
+      </c>
       <c r="I496" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000495::bigint);</v>
@@ -23204,6 +24696,9 @@
         <f>IF(EXACT($F497, ""), "", VLOOKUP($F497, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H497" s="2">
+        <v>496</v>
+      </c>
       <c r="I497" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000496::bigint);</v>
@@ -23229,6 +24724,9 @@
         <f>IF(EXACT($F498, ""), "", VLOOKUP($F498, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H498" s="2">
+        <v>497</v>
+      </c>
       <c r="I498" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000497::bigint);</v>
@@ -23254,6 +24752,9 @@
         <f>IF(EXACT($F499, ""), "", VLOOKUP($F499, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H499" s="2">
+        <v>498</v>
+      </c>
       <c r="I499" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000498::bigint);</v>
@@ -23279,6 +24780,9 @@
         <f>IF(EXACT($F500, ""), "", VLOOKUP($F500, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H500" s="2">
+        <v>499</v>
+      </c>
       <c r="I500" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000499::bigint);</v>
@@ -23304,6 +24808,9 @@
         <f>IF(EXACT($F501, ""), "", VLOOKUP($F501, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H501" s="2">
+        <v>500</v>
+      </c>
       <c r="I501" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000500::bigint);</v>
@@ -23329,6 +24836,9 @@
         <f>IF(EXACT($F502, ""), "", VLOOKUP($F502, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H502" s="2">
+        <v>501</v>
+      </c>
       <c r="I502" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000501::bigint);</v>
@@ -23354,6 +24864,9 @@
         <f>IF(EXACT($F503, ""), "", VLOOKUP($F503, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H503" s="2">
+        <v>502</v>
+      </c>
       <c r="I503" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000502::bigint);</v>
@@ -23379,6 +24892,9 @@
         <f>IF(EXACT($F504, ""), "", VLOOKUP($F504, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H504" s="2">
+        <v>503</v>
+      </c>
       <c r="I504" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000503::bigint);</v>
@@ -23404,6 +24920,9 @@
         <f>IF(EXACT($F505, ""), "", VLOOKUP($F505, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H505" s="2">
+        <v>504</v>
+      </c>
       <c r="I505" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000504::bigint);</v>
@@ -23429,6 +24948,9 @@
         <f>IF(EXACT($F506, ""), "", VLOOKUP($F506, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H506" s="2">
+        <v>505</v>
+      </c>
       <c r="I506" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000505::bigint);</v>
@@ -23454,6 +24976,9 @@
         <f>IF(EXACT($F507, ""), "", VLOOKUP($F507, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H507" s="2">
+        <v>506</v>
+      </c>
       <c r="I507" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000506::bigint);</v>
@@ -23479,6 +25004,9 @@
         <f>IF(EXACT($F508, ""), "", VLOOKUP($F508, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H508" s="2">
+        <v>507</v>
+      </c>
       <c r="I508" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000507::bigint);</v>
@@ -23504,6 +25032,9 @@
         <f>IF(EXACT($F509, ""), "", VLOOKUP($F509, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H509" s="2">
+        <v>508</v>
+      </c>
       <c r="I509" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000508::bigint);</v>
@@ -23529,6 +25060,9 @@
         <f>IF(EXACT($F510, ""), "", VLOOKUP($F510, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H510" s="2">
+        <v>509</v>
+      </c>
       <c r="I510" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000509::bigint);</v>
@@ -23554,6 +25088,9 @@
         <f>IF(EXACT($F511, ""), "", VLOOKUP($F511, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H511" s="2">
+        <v>510</v>
+      </c>
       <c r="I511" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000510::bigint);</v>
@@ -23579,6 +25116,9 @@
         <f>IF(EXACT($F512, ""), "", VLOOKUP($F512, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H512" s="2">
+        <v>511</v>
+      </c>
       <c r="I512" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000511::bigint);</v>
@@ -23604,6 +25144,9 @@
         <f>IF(EXACT($F513, ""), "", VLOOKUP($F513, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H513" s="2">
+        <v>512</v>
+      </c>
       <c r="I513" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000512::bigint);</v>
@@ -23629,6 +25172,9 @@
         <f>IF(EXACT($F514, ""), "", VLOOKUP($F514, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H514" s="2">
+        <v>513</v>
+      </c>
       <c r="I514" s="9" t="str">
         <f t="shared" si="7"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000513::bigint);</v>
@@ -23654,6 +25200,9 @@
         <f>IF(EXACT($F515, ""), "", VLOOKUP($F515, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H515" s="2">
+        <v>514</v>
+      </c>
       <c r="I515" s="9" t="str">
         <f t="shared" ref="I515:I578" si="8">IF(EXACT(G515, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuGroupMember_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", G515, "::bigint, ", B515, "::bigint);"))</f>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000514::bigint);</v>
@@ -23679,6 +25228,9 @@
         <f>IF(EXACT($F516, ""), "", VLOOKUP($F516, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H516" s="2">
+        <v>515</v>
+      </c>
       <c r="I516" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000515::bigint);</v>
@@ -23704,6 +25256,9 @@
         <f>IF(EXACT($F517, ""), "", VLOOKUP($F517, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H517" s="2">
+        <v>516</v>
+      </c>
       <c r="I517" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000516::bigint);</v>
@@ -23729,6 +25284,9 @@
         <f>IF(EXACT($F518, ""), "", VLOOKUP($F518, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H518" s="2">
+        <v>517</v>
+      </c>
       <c r="I518" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000517::bigint);</v>
@@ -23754,6 +25312,9 @@
         <f>IF(EXACT($F519, ""), "", VLOOKUP($F519, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H519" s="2">
+        <v>518</v>
+      </c>
       <c r="I519" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000518::bigint);</v>
@@ -23779,6 +25340,9 @@
         <f>IF(EXACT($F520, ""), "", VLOOKUP($F520, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H520" s="2">
+        <v>519</v>
+      </c>
       <c r="I520" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000519::bigint);</v>
@@ -23804,6 +25368,9 @@
         <f>IF(EXACT($F521, ""), "", VLOOKUP($F521, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H521" s="2">
+        <v>520</v>
+      </c>
       <c r="I521" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000520::bigint);</v>
@@ -23829,6 +25396,9 @@
         <f>IF(EXACT($F522, ""), "", VLOOKUP($F522, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000003</v>
       </c>
+      <c r="H522" s="2">
+        <v>521</v>
+      </c>
       <c r="I522" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000003::bigint, 97000000000521::bigint);</v>
@@ -23854,6 +25424,9 @@
         <f>IF(EXACT($F523, ""), "", VLOOKUP($F523, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H523" s="2">
+        <v>522</v>
+      </c>
       <c r="I523" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000522::bigint);</v>
@@ -23879,6 +25452,9 @@
         <f>IF(EXACT($F524, ""), "", VLOOKUP($F524, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H524" s="2">
+        <v>523</v>
+      </c>
       <c r="I524" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000523::bigint);</v>
@@ -23904,6 +25480,9 @@
         <f>IF(EXACT($F525, ""), "", VLOOKUP($F525, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H525" s="2">
+        <v>524</v>
+      </c>
       <c r="I525" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000524::bigint);</v>
@@ -23929,6 +25508,9 @@
         <f>IF(EXACT($F526, ""), "", VLOOKUP($F526, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H526" s="2">
+        <v>525</v>
+      </c>
       <c r="I526" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000525::bigint);</v>
@@ -23954,6 +25536,9 @@
         <f>IF(EXACT($F527, ""), "", VLOOKUP($F527, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H527" s="2">
+        <v>526</v>
+      </c>
       <c r="I527" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000526::bigint);</v>
@@ -23979,6 +25564,9 @@
         <f>IF(EXACT($F528, ""), "", VLOOKUP($F528, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H528" s="2">
+        <v>527</v>
+      </c>
       <c r="I528" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000527::bigint);</v>
@@ -24004,6 +25592,9 @@
         <f>IF(EXACT($F529, ""), "", VLOOKUP($F529, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H529" s="2">
+        <v>528</v>
+      </c>
       <c r="I529" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000528::bigint);</v>
@@ -24029,6 +25620,9 @@
         <f>IF(EXACT($F530, ""), "", VLOOKUP($F530, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H530" s="2">
+        <v>529</v>
+      </c>
       <c r="I530" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000529::bigint);</v>
@@ -24054,6 +25648,9 @@
         <f>IF(EXACT($F531, ""), "", VLOOKUP($F531, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H531" s="2">
+        <v>530</v>
+      </c>
       <c r="I531" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000530::bigint);</v>
@@ -24079,6 +25676,9 @@
         <f>IF(EXACT($F532, ""), "", VLOOKUP($F532, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H532" s="2">
+        <v>531</v>
+      </c>
       <c r="I532" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000531::bigint);</v>
@@ -24104,6 +25704,9 @@
         <f>IF(EXACT($F533, ""), "", VLOOKUP($F533, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H533" s="2">
+        <v>532</v>
+      </c>
       <c r="I533" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000532::bigint);</v>
@@ -24129,6 +25732,9 @@
         <f>IF(EXACT($F534, ""), "", VLOOKUP($F534, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H534" s="2">
+        <v>533</v>
+      </c>
       <c r="I534" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000533::bigint);</v>
@@ -24154,6 +25760,9 @@
         <f>IF(EXACT($F535, ""), "", VLOOKUP($F535, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H535" s="2">
+        <v>534</v>
+      </c>
       <c r="I535" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000534::bigint);</v>
@@ -24179,6 +25788,9 @@
         <f>IF(EXACT($F536, ""), "", VLOOKUP($F536, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H536" s="2">
+        <v>535</v>
+      </c>
       <c r="I536" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000535::bigint);</v>
@@ -24204,6 +25816,9 @@
         <f>IF(EXACT($F537, ""), "", VLOOKUP($F537, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H537" s="2">
+        <v>536</v>
+      </c>
       <c r="I537" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000536::bigint);</v>
@@ -24229,6 +25844,9 @@
         <f>IF(EXACT($F538, ""), "", VLOOKUP($F538, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H538" s="2">
+        <v>537</v>
+      </c>
       <c r="I538" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000537::bigint);</v>
@@ -24254,6 +25872,9 @@
         <f>IF(EXACT($F539, ""), "", VLOOKUP($F539, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H539" s="2">
+        <v>538</v>
+      </c>
       <c r="I539" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000538::bigint);</v>
@@ -24279,6 +25900,9 @@
         <f>IF(EXACT($F540, ""), "", VLOOKUP($F540, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H540" s="2">
+        <v>539</v>
+      </c>
       <c r="I540" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000539::bigint);</v>
@@ -24304,6 +25928,9 @@
         <f>IF(EXACT($F541, ""), "", VLOOKUP($F541, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H541" s="2">
+        <v>540</v>
+      </c>
       <c r="I541" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000540::bigint);</v>
@@ -24329,6 +25956,9 @@
         <f>IF(EXACT($F542, ""), "", VLOOKUP($F542, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H542" s="2">
+        <v>541</v>
+      </c>
       <c r="I542" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000541::bigint);</v>
@@ -24354,6 +25984,9 @@
         <f>IF(EXACT($F543, ""), "", VLOOKUP($F543, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H543" s="2">
+        <v>542</v>
+      </c>
       <c r="I543" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000542::bigint);</v>
@@ -24379,6 +26012,9 @@
         <f>IF(EXACT($F544, ""), "", VLOOKUP($F544, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H544" s="2">
+        <v>543</v>
+      </c>
       <c r="I544" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000543::bigint);</v>
@@ -24404,6 +26040,9 @@
         <f>IF(EXACT($F545, ""), "", VLOOKUP($F545, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H545" s="2">
+        <v>544</v>
+      </c>
       <c r="I545" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000544::bigint);</v>
@@ -24429,6 +26068,9 @@
         <f>IF(EXACT($F546, ""), "", VLOOKUP($F546, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H546" s="2">
+        <v>545</v>
+      </c>
       <c r="I546" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000545::bigint);</v>
@@ -24454,6 +26096,9 @@
         <f>IF(EXACT($F547, ""), "", VLOOKUP($F547, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H547" s="2">
+        <v>546</v>
+      </c>
       <c r="I547" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000546::bigint);</v>
@@ -24479,6 +26124,9 @@
         <f>IF(EXACT($F548, ""), "", VLOOKUP($F548, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H548" s="2">
+        <v>547</v>
+      </c>
       <c r="I548" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000547::bigint);</v>
@@ -24504,6 +26152,9 @@
         <f>IF(EXACT($F549, ""), "", VLOOKUP($F549, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H549" s="2">
+        <v>548</v>
+      </c>
       <c r="I549" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000548::bigint);</v>
@@ -24529,6 +26180,9 @@
         <f>IF(EXACT($F550, ""), "", VLOOKUP($F550, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H550" s="2">
+        <v>549</v>
+      </c>
       <c r="I550" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000549::bigint);</v>
@@ -24554,6 +26208,9 @@
         <f>IF(EXACT($F551, ""), "", VLOOKUP($F551, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H551" s="2">
+        <v>550</v>
+      </c>
       <c r="I551" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000550::bigint);</v>
@@ -24579,6 +26236,9 @@
         <f>IF(EXACT($F552, ""), "", VLOOKUP($F552, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H552" s="2">
+        <v>551</v>
+      </c>
       <c r="I552" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000551::bigint);</v>
@@ -24604,6 +26264,9 @@
         <f>IF(EXACT($F553, ""), "", VLOOKUP($F553, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H553" s="2">
+        <v>552</v>
+      </c>
       <c r="I553" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000552::bigint);</v>
@@ -24629,6 +26292,9 @@
         <f>IF(EXACT($F554, ""), "", VLOOKUP($F554, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H554" s="2">
+        <v>553</v>
+      </c>
       <c r="I554" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000553::bigint);</v>
@@ -24654,6 +26320,9 @@
         <f>IF(EXACT($F555, ""), "", VLOOKUP($F555, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H555" s="2">
+        <v>554</v>
+      </c>
       <c r="I555" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000554::bigint);</v>
@@ -24679,6 +26348,9 @@
         <f>IF(EXACT($F556, ""), "", VLOOKUP($F556, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H556" s="2">
+        <v>555</v>
+      </c>
       <c r="I556" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000555::bigint);</v>
@@ -24704,6 +26376,9 @@
         <f>IF(EXACT($F557, ""), "", VLOOKUP($F557, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H557" s="2">
+        <v>556</v>
+      </c>
       <c r="I557" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000556::bigint);</v>
@@ -24729,6 +26404,9 @@
         <f>IF(EXACT($F558, ""), "", VLOOKUP($F558, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H558" s="2">
+        <v>557</v>
+      </c>
       <c r="I558" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000557::bigint);</v>
@@ -24754,6 +26432,9 @@
         <f>IF(EXACT($F559, ""), "", VLOOKUP($F559, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H559" s="2">
+        <v>558</v>
+      </c>
       <c r="I559" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000558::bigint);</v>
@@ -24779,6 +26460,9 @@
         <f>IF(EXACT($F560, ""), "", VLOOKUP($F560, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H560" s="2">
+        <v>559</v>
+      </c>
       <c r="I560" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000559::bigint);</v>
@@ -24804,6 +26488,9 @@
         <f>IF(EXACT($F561, ""), "", VLOOKUP($F561, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H561" s="2">
+        <v>560</v>
+      </c>
       <c r="I561" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000560::bigint);</v>
@@ -24829,6 +26516,9 @@
         <f>IF(EXACT($F562, ""), "", VLOOKUP($F562, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H562" s="2">
+        <v>561</v>
+      </c>
       <c r="I562" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000561::bigint);</v>
@@ -24854,6 +26544,9 @@
         <f>IF(EXACT($F563, ""), "", VLOOKUP($F563, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H563" s="2">
+        <v>562</v>
+      </c>
       <c r="I563" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000562::bigint);</v>
@@ -24879,6 +26572,9 @@
         <f>IF(EXACT($F564, ""), "", VLOOKUP($F564, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H564" s="2">
+        <v>563</v>
+      </c>
       <c r="I564" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000563::bigint);</v>
@@ -24904,6 +26600,9 @@
         <f>IF(EXACT($F565, ""), "", VLOOKUP($F565, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H565" s="2">
+        <v>564</v>
+      </c>
       <c r="I565" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000564::bigint);</v>
@@ -24929,6 +26628,9 @@
         <f>IF(EXACT($F566, ""), "", VLOOKUP($F566, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H566" s="2">
+        <v>565</v>
+      </c>
       <c r="I566" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000565::bigint);</v>
@@ -24954,6 +26656,9 @@
         <f>IF(EXACT($F567, ""), "", VLOOKUP($F567, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H567" s="2">
+        <v>566</v>
+      </c>
       <c r="I567" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000566::bigint);</v>
@@ -24979,6 +26684,9 @@
         <f>IF(EXACT($F568, ""), "", VLOOKUP($F568, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H568" s="2">
+        <v>567</v>
+      </c>
       <c r="I568" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000567::bigint);</v>
@@ -25004,6 +26712,9 @@
         <f>IF(EXACT($F569, ""), "", VLOOKUP($F569, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H569" s="2">
+        <v>568</v>
+      </c>
       <c r="I569" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000568::bigint);</v>
@@ -25029,6 +26740,9 @@
         <f>IF(EXACT($F570, ""), "", VLOOKUP($F570, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000006</v>
       </c>
+      <c r="H570" s="2">
+        <v>569</v>
+      </c>
       <c r="I570" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000569::bigint);</v>
@@ -25054,6 +26768,9 @@
         <f>IF(EXACT($F571, ""), "", VLOOKUP($F571, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H571" s="2">
+        <v>570</v>
+      </c>
       <c r="I571" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000570::bigint);</v>
@@ -25079,6 +26796,9 @@
         <f>IF(EXACT($F572, ""), "", VLOOKUP($F572, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H572" s="2">
+        <v>571</v>
+      </c>
       <c r="I572" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000571::bigint);</v>
@@ -25104,6 +26824,9 @@
         <f>IF(EXACT($F573, ""), "", VLOOKUP($F573, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H573" s="2">
+        <v>572</v>
+      </c>
       <c r="I573" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000572::bigint);</v>
@@ -25129,6 +26852,9 @@
         <f>IF(EXACT($F574, ""), "", VLOOKUP($F574, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H574" s="2">
+        <v>573</v>
+      </c>
       <c r="I574" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000573::bigint);</v>
@@ -25154,6 +26880,9 @@
         <f>IF(EXACT($F575, ""), "", VLOOKUP($F575, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H575" s="2">
+        <v>574</v>
+      </c>
       <c r="I575" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000574::bigint);</v>
@@ -25179,6 +26908,9 @@
         <f>IF(EXACT($F576, ""), "", VLOOKUP($F576, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H576" s="2">
+        <v>575</v>
+      </c>
       <c r="I576" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000575::bigint);</v>
@@ -25204,6 +26936,9 @@
         <f>IF(EXACT($F577, ""), "", VLOOKUP($F577, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H577" s="2">
+        <v>576</v>
+      </c>
       <c r="I577" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000576::bigint);</v>
@@ -25229,6 +26964,9 @@
         <f>IF(EXACT($F578, ""), "", VLOOKUP($F578, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H578" s="2">
+        <v>577</v>
+      </c>
       <c r="I578" s="9" t="str">
         <f t="shared" si="8"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000577::bigint);</v>
@@ -25254,6 +26992,9 @@
         <f>IF(EXACT($F579, ""), "", VLOOKUP($F579, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H579" s="2">
+        <v>578</v>
+      </c>
       <c r="I579" s="9" t="str">
         <f t="shared" ref="I579:I626" si="9">IF(EXACT(G579, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuGroupMember_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", G579, "::bigint, ", B579, "::bigint);"))</f>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000578::bigint);</v>
@@ -25279,6 +27020,9 @@
         <f>IF(EXACT($F580, ""), "", VLOOKUP($F580, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H580" s="2">
+        <v>579</v>
+      </c>
       <c r="I580" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000579::bigint);</v>
@@ -25304,6 +27048,9 @@
         <f>IF(EXACT($F581, ""), "", VLOOKUP($F581, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H581" s="2">
+        <v>580</v>
+      </c>
       <c r="I581" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000580::bigint);</v>
@@ -25329,6 +27076,9 @@
         <f>IF(EXACT($F582, ""), "", VLOOKUP($F582, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H582" s="2">
+        <v>581</v>
+      </c>
       <c r="I582" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000581::bigint);</v>
@@ -25354,6 +27104,9 @@
         <f>IF(EXACT($F583, ""), "", VLOOKUP($F583, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H583" s="2">
+        <v>582</v>
+      </c>
       <c r="I583" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000582::bigint);</v>
@@ -25379,6 +27132,9 @@
         <f>IF(EXACT($F584, ""), "", VLOOKUP($F584, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H584" s="2">
+        <v>583</v>
+      </c>
       <c r="I584" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000583::bigint);</v>
@@ -25404,6 +27160,9 @@
         <f>IF(EXACT($F585, ""), "", VLOOKUP($F585, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H585" s="2">
+        <v>584</v>
+      </c>
       <c r="I585" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000584::bigint);</v>
@@ -25429,6 +27188,9 @@
         <f>IF(EXACT($F586, ""), "", VLOOKUP($F586, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H586" s="2">
+        <v>585</v>
+      </c>
       <c r="I586" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000585::bigint);</v>
@@ -25454,6 +27216,9 @@
         <f>IF(EXACT($F587, ""), "", VLOOKUP($F587, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H587" s="2">
+        <v>586</v>
+      </c>
       <c r="I587" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000586::bigint);</v>
@@ -25479,6 +27244,9 @@
         <f>IF(EXACT($F588, ""), "", VLOOKUP($F588, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H588" s="2">
+        <v>587</v>
+      </c>
       <c r="I588" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000587::bigint);</v>
@@ -25504,6 +27272,9 @@
         <f>IF(EXACT($F589, ""), "", VLOOKUP($F589, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H589" s="2">
+        <v>588</v>
+      </c>
       <c r="I589" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000588::bigint);</v>
@@ -25529,6 +27300,9 @@
         <f>IF(EXACT($F590, ""), "", VLOOKUP($F590, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H590" s="2">
+        <v>589</v>
+      </c>
       <c r="I590" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000589::bigint);</v>
@@ -25554,6 +27328,9 @@
         <f>IF(EXACT($F591, ""), "", VLOOKUP($F591, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H591" s="2">
+        <v>590</v>
+      </c>
       <c r="I591" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000590::bigint);</v>
@@ -25579,6 +27356,9 @@
         <f>IF(EXACT($F592, ""), "", VLOOKUP($F592, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H592" s="2">
+        <v>591</v>
+      </c>
       <c r="I592" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000591::bigint);</v>
@@ -25604,6 +27384,9 @@
         <f>IF(EXACT($F593, ""), "", VLOOKUP($F593, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H593" s="2">
+        <v>592</v>
+      </c>
       <c r="I593" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000592::bigint);</v>
@@ -25629,6 +27412,9 @@
         <f>IF(EXACT($F594, ""), "", VLOOKUP($F594, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H594" s="2">
+        <v>593</v>
+      </c>
       <c r="I594" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000593::bigint);</v>
@@ -25654,6 +27440,9 @@
         <f>IF(EXACT($F595, ""), "", VLOOKUP($F595, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H595" s="2">
+        <v>594</v>
+      </c>
       <c r="I595" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000594::bigint);</v>
@@ -25679,6 +27468,9 @@
         <f>IF(EXACT($F596, ""), "", VLOOKUP($F596, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H596" s="2">
+        <v>595</v>
+      </c>
       <c r="I596" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000595::bigint);</v>
@@ -25704,6 +27496,9 @@
         <f>IF(EXACT($F597, ""), "", VLOOKUP($F597, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H597" s="2">
+        <v>596</v>
+      </c>
       <c r="I597" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000596::bigint);</v>
@@ -25729,6 +27524,9 @@
         <f>IF(EXACT($F598, ""), "", VLOOKUP($F598, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H598" s="2">
+        <v>597</v>
+      </c>
       <c r="I598" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000597::bigint);</v>
@@ -25754,6 +27552,9 @@
         <f>IF(EXACT($F599, ""), "", VLOOKUP($F599, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000007</v>
       </c>
+      <c r="H599" s="2">
+        <v>598</v>
+      </c>
       <c r="I599" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000007::bigint, 97000000000598::bigint);</v>
@@ -25779,6 +27580,9 @@
         <f>IF(EXACT($F600, ""), "", VLOOKUP($F600, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000007</v>
       </c>
+      <c r="H600" s="2">
+        <v>599</v>
+      </c>
       <c r="I600" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000007::bigint, 97000000000599::bigint);</v>
@@ -25804,6 +27608,9 @@
         <f>IF(EXACT($F601, ""), "", VLOOKUP($F601, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000007</v>
       </c>
+      <c r="H601" s="2">
+        <v>600</v>
+      </c>
       <c r="I601" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000007::bigint, 97000000000600::bigint);</v>
@@ -25829,6 +27636,9 @@
         <f>IF(EXACT($F602, ""), "", VLOOKUP($F602, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000007</v>
       </c>
+      <c r="H602" s="2">
+        <v>601</v>
+      </c>
       <c r="I602" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000007::bigint, 97000000000601::bigint);</v>
@@ -25854,6 +27664,9 @@
         <f>IF(EXACT($F603, ""), "", VLOOKUP($F603, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000007</v>
       </c>
+      <c r="H603" s="2">
+        <v>602</v>
+      </c>
       <c r="I603" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000007::bigint, 97000000000602::bigint);</v>
@@ -25879,6 +27692,9 @@
         <f>IF(EXACT($F604, ""), "", VLOOKUP($F604, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000007</v>
       </c>
+      <c r="H604" s="2">
+        <v>603</v>
+      </c>
       <c r="I604" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000007::bigint, 97000000000603::bigint);</v>
@@ -25904,6 +27720,9 @@
         <f>IF(EXACT($F605, ""), "", VLOOKUP($F605, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000007</v>
       </c>
+      <c r="H605" s="2">
+        <v>604</v>
+      </c>
       <c r="I605" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000007::bigint, 97000000000604::bigint);</v>
@@ -25929,6 +27748,9 @@
         <f>IF(EXACT($F606, ""), "", VLOOKUP($F606, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000007</v>
       </c>
+      <c r="H606" s="2">
+        <v>605</v>
+      </c>
       <c r="I606" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000007::bigint, 97000000000605::bigint);</v>
@@ -25954,6 +27776,9 @@
         <f>IF(EXACT($F607, ""), "", VLOOKUP($F607, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H607" s="2">
+        <v>606</v>
+      </c>
       <c r="I607" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000606::bigint);</v>
@@ -25979,6 +27804,9 @@
         <f>IF(EXACT($F608, ""), "", VLOOKUP($F608, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H608" s="2">
+        <v>607</v>
+      </c>
       <c r="I608" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000607::bigint);</v>
@@ -26004,6 +27832,9 @@
         <f>IF(EXACT($F609, ""), "", VLOOKUP($F609, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H609" s="2">
+        <v>608</v>
+      </c>
       <c r="I609" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000608::bigint);</v>
@@ -26029,6 +27860,9 @@
         <f>IF(EXACT($F610, ""), "", VLOOKUP($F610, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H610" s="2">
+        <v>609</v>
+      </c>
       <c r="I610" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000609::bigint);</v>
@@ -26054,6 +27888,9 @@
         <f>IF(EXACT($F611, ""), "", VLOOKUP($F611, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H611" s="2">
+        <v>610</v>
+      </c>
       <c r="I611" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000610::bigint);</v>
@@ -26079,6 +27916,9 @@
         <f>IF(EXACT($F612, ""), "", VLOOKUP($F612, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H612" s="2">
+        <v>611</v>
+      </c>
       <c r="I612" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000611::bigint);</v>
@@ -26104,6 +27944,9 @@
         <f>IF(EXACT($F613, ""), "", VLOOKUP($F613, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H613" s="2">
+        <v>612</v>
+      </c>
       <c r="I613" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000612::bigint);</v>
@@ -26129,6 +27972,9 @@
         <f>IF(EXACT($F614, ""), "", VLOOKUP($F614, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000008</v>
       </c>
+      <c r="H614" s="2">
+        <v>613</v>
+      </c>
       <c r="I614" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000613::bigint);</v>
@@ -26154,6 +28000,9 @@
         <f>IF(EXACT($F615, ""), "", VLOOKUP($F615, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H615" s="2">
+        <v>614</v>
+      </c>
       <c r="I615" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000614::bigint);</v>
@@ -26179,6 +28028,9 @@
         <f>IF(EXACT($F616, ""), "", VLOOKUP($F616, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H616" s="2">
+        <v>615</v>
+      </c>
       <c r="I616" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000615::bigint);</v>
@@ -26204,6 +28056,9 @@
         <f>IF(EXACT($F617, ""), "", VLOOKUP($F617, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H617" s="2">
+        <v>616</v>
+      </c>
       <c r="I617" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000616::bigint);</v>
@@ -26229,6 +28084,9 @@
         <f>IF(EXACT($F618, ""), "", VLOOKUP($F618, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H618" s="2">
+        <v>617</v>
+      </c>
       <c r="I618" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000617::bigint);</v>
@@ -26254,6 +28112,9 @@
         <f>IF(EXACT($F619, ""), "", VLOOKUP($F619, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H619" s="2">
+        <v>618</v>
+      </c>
       <c r="I619" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000618::bigint);</v>
@@ -26279,6 +28140,9 @@
         <f>IF(EXACT($F620, ""), "", VLOOKUP($F620, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H620" s="2">
+        <v>619</v>
+      </c>
       <c r="I620" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000619::bigint);</v>
@@ -26304,6 +28168,9 @@
         <f>IF(EXACT($F621, ""), "", VLOOKUP($F621, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H621" s="2">
+        <v>620</v>
+      </c>
       <c r="I621" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000620::bigint);</v>
@@ -26329,6 +28196,9 @@
         <f>IF(EXACT($F622, ""), "", VLOOKUP($F622, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H622" s="2">
+        <v>621</v>
+      </c>
       <c r="I622" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000621::bigint);</v>
@@ -26354,6 +28224,9 @@
         <f>IF(EXACT($F623, ""), "", VLOOKUP($F623, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H623" s="2">
+        <v>622</v>
+      </c>
       <c r="I623" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000622::bigint);</v>
@@ -26379,6 +28252,9 @@
         <f>IF(EXACT($F624, ""), "", VLOOKUP($F624, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H624" s="2">
+        <v>623</v>
+      </c>
       <c r="I624" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000623::bigint);</v>
@@ -26404,6 +28280,9 @@
         <f>IF(EXACT($F625, ""), "", VLOOKUP($F625, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
       </c>
+      <c r="H625" s="2">
+        <v>624</v>
+      </c>
       <c r="I625" s="9" t="str">
         <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000624::bigint);</v>
@@ -26428,6 +28307,9 @@
       <c r="G626" s="6">
         <f>IF(EXACT($F626, ""), "", VLOOKUP($F626, [2]Main!$B$2:$D$30, 3, FALSE))</f>
         <v>254000000000004</v>
+      </c>
+      <c r="H626" s="2">
+        <v>625</v>
       </c>
       <c r="I626" s="9" t="str">
         <f t="shared" si="9"/>

--- a/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_MenuGroupMember.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/SysConfig.TblAppObject_MenuGroupMember.xlsx
@@ -7662,8 +7662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I642"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C623" workbookViewId="0">
-      <selection activeCell="J634" sqref="J634"/>
+    <sheetView tabSelected="1" topLeftCell="C629" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I642"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23864,7 +23864,7 @@
         <v>578</v>
       </c>
       <c r="I579" s="9" t="str">
-        <f t="shared" ref="I579:I626" si="9">IF(EXACT(G579, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuGroupMember_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", G579, "::bigint, ", B579, "::bigint);"))</f>
+        <f t="shared" ref="I579:I642" si="9">IF(EXACT(G579, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuGroupMember_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", G579, "::bigint, ", B579, "::bigint);"))</f>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000006::bigint, 97000000000578::bigint);</v>
       </c>
     </row>
@@ -25208,7 +25208,7 @@
         <v>626</v>
       </c>
       <c r="I627" s="9" t="str">
-        <f t="shared" ref="I627:I642" si="10">IF(EXACT(G627, ""), "", CONCATENATE("PERFORM ""SchSysConfig"".""Func_TblAppObject_MenuGroupMember_SET""(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, ", G627, "::bigint, ", B627, "::bigint);"))</f>
+        <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000626::bigint);</v>
       </c>
     </row>
@@ -25236,7 +25236,7 @@
         <v>627</v>
       </c>
       <c r="I628" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000627::bigint);</v>
       </c>
     </row>
@@ -25264,7 +25264,7 @@
         <v>628</v>
       </c>
       <c r="I629" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000628::bigint);</v>
       </c>
     </row>
@@ -25292,7 +25292,7 @@
         <v>629</v>
       </c>
       <c r="I630" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000008::bigint, 97000000000629::bigint);</v>
       </c>
     </row>
@@ -25320,7 +25320,7 @@
         <v>630</v>
       </c>
       <c r="I631" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000630::bigint);</v>
       </c>
     </row>
@@ -25348,7 +25348,7 @@
         <v>631</v>
       </c>
       <c r="I632" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000631::bigint);</v>
       </c>
     </row>
@@ -25376,7 +25376,7 @@
         <v>632</v>
       </c>
       <c r="I633" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000632::bigint);</v>
       </c>
     </row>
@@ -25404,7 +25404,7 @@
         <v>633</v>
       </c>
       <c r="I634" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000633::bigint);</v>
       </c>
     </row>
@@ -25432,7 +25432,7 @@
         <v>634</v>
       </c>
       <c r="I635" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000634::bigint);</v>
       </c>
     </row>
@@ -25460,7 +25460,7 @@
         <v>635</v>
       </c>
       <c r="I636" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000635::bigint);</v>
       </c>
     </row>
@@ -25488,7 +25488,7 @@
         <v>636</v>
       </c>
       <c r="I637" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000636::bigint);</v>
       </c>
     </row>
@@ -25516,7 +25516,7 @@
         <v>637</v>
       </c>
       <c r="I638" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000637::bigint);</v>
       </c>
     </row>
@@ -25544,7 +25544,7 @@
         <v>638</v>
       </c>
       <c r="I639" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000638::bigint);</v>
       </c>
     </row>
@@ -25572,7 +25572,7 @@
         <v>639</v>
       </c>
       <c r="I640" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000639::bigint);</v>
       </c>
     </row>
@@ -25600,7 +25600,7 @@
         <v>640</v>
       </c>
       <c r="I641" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000640::bigint);</v>
       </c>
     </row>
@@ -25628,7 +25628,7 @@
         <v>641</v>
       </c>
       <c r="I642" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>PERFORM "SchSysConfig"."Func_TblAppObject_MenuGroupMember_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, varBaseCurrencyID, 254000000000004::bigint, 97000000000641::bigint);</v>
       </c>
     </row>
